--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -1104,8 +1104,8 @@
   <dimension ref="A1:O190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1659,12 +1659,15 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="6"/>
+      <c r="H22">
+        <v>19</v>
+      </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$83</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1101,11 +1101,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1235,12 +1235,15 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="6"/>
+      <c r="H3">
+        <v>17</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1348,12 +1351,15 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="6"/>
+      <c r="H8">
+        <v>19</v>
+      </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1417,12 +1423,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="6"/>
+      <c r="H11">
+        <v>15</v>
+      </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1527,12 +1536,15 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="6"/>
+      <c r="H16">
+        <v>16</v>
+      </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1615,12 +1627,15 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="6"/>
+      <c r="H20">
+        <v>17</v>
+      </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1660,14 +1675,14 @@
       <c r="F22" s="2"/>
       <c r="G22" s="6"/>
       <c r="H22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1706,12 +1721,15 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="6"/>
+      <c r="H24">
+        <v>17</v>
+      </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1728,12 +1746,15 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="6"/>
+      <c r="H25">
+        <v>16</v>
+      </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1772,12 +1793,15 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="6"/>
+      <c r="H27">
+        <v>20</v>
+      </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1794,12 +1818,15 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="6"/>
+      <c r="H28">
+        <v>17</v>
+      </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1816,12 +1843,15 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="6"/>
+      <c r="H29">
+        <v>15</v>
+      </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1882,12 +1912,15 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="6"/>
+      <c r="H32">
+        <v>19</v>
+      </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1926,12 +1959,15 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="6"/>
+      <c r="H34">
+        <v>16</v>
+      </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1970,12 +2006,15 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="6"/>
+      <c r="H36">
+        <v>16</v>
+      </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1992,12 +2031,15 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="6"/>
+      <c r="H37">
+        <v>18</v>
+      </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2036,12 +2078,15 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="6"/>
+      <c r="H39">
+        <v>19</v>
+      </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2080,12 +2125,15 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="6"/>
+      <c r="H41">
+        <v>14</v>
+      </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2177,12 +2225,15 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="6"/>
+      <c r="H45">
+        <v>17</v>
+      </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2221,12 +2272,15 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="6"/>
+      <c r="H47">
+        <v>18</v>
+      </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2243,12 +2297,15 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="6"/>
+      <c r="H48">
+        <v>19</v>
+      </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2287,12 +2344,15 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="6"/>
+      <c r="H50">
+        <v>14</v>
+      </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2331,12 +2391,15 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="6"/>
+      <c r="H52">
+        <v>14</v>
+      </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2400,12 +2463,15 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="6"/>
+      <c r="H55">
+        <v>19</v>
+      </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2422,12 +2488,15 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="6"/>
+      <c r="H56">
+        <v>18</v>
+      </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2466,12 +2535,15 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="6"/>
+      <c r="H58">
+        <v>17</v>
+      </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2513,12 +2585,15 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="6"/>
+      <c r="H60">
+        <v>14</v>
+      </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,12 +2610,15 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="6"/>
+      <c r="H61">
+        <v>17</v>
+      </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2677,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="1">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <f t="shared" ref="N67:N83" si="1">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
         <v>0</v>
       </c>
     </row>
@@ -2717,12 +2795,15 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="6"/>
+      <c r="H69">
+        <v>16</v>
+      </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="N69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2739,12 +2820,15 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="6"/>
+      <c r="H70">
+        <v>18</v>
+      </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="N70">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2805,12 +2889,15 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="6"/>
+      <c r="H73">
+        <v>16</v>
+      </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="N73">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2827,12 +2914,15 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="6"/>
+      <c r="H74">
+        <v>19</v>
+      </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="N74">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2849,12 +2939,15 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="6"/>
+      <c r="H75">
+        <v>16</v>
+      </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="N75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2918,12 +3011,15 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="6"/>
+      <c r="H78">
+        <v>18</v>
+      </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="N78">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2962,12 +3058,15 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="6"/>
+      <c r="H80">
+        <v>16</v>
+      </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="N80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3028,2568 +3127,15 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="6"/>
+      <c r="H83">
+        <v>17</v>
+      </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="N83">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="6" t="str">
-        <f t="shared" ref="D84:D130" si="2">IF((N84)&gt;=50,10,"")</f>
-        <v/>
-      </c>
-      <c r="E84" s="2" t="str">
-        <f t="shared" ref="E84:E130" si="3">IF((N84)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="F84" s="2" t="str">
-        <f t="shared" ref="F84:F130" si="4">IF((N84)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="G84" s="6" t="str">
-        <f t="shared" ref="G84:G130" si="5">IF((N84)&gt;=51,IF((N84-50)&gt;50,50,IF((N84-50)&lt;0,0,(N84-50))), "" )</f>
-        <v/>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E85" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F85" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G85" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E86" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F86" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G86" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E87" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F87" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G87" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E88" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F88" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G88" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E89" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F89" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G89" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E90" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F90" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G90" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E91" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F91" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G91" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E92" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F92" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G92" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E93" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F93" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G93" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E94" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F94" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G94" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E95" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F95" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G95" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="N95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E96" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F96" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G96" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E97" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F97" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G97" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="N97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E98" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F98" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G98" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="N98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E99" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F99" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G99" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="N99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E100" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F100" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G100" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="N100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E101" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F101" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G101" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="N101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E102" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F102" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G102" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="N102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E103" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F103" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G103" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="N103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E104" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F104" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G104" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E105" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F105" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G105" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="N105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E106" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F106" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G106" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E107" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F107" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G107" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E108" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F108" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G108" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-      <c r="N108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E109" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F109" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G109" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="N109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E110" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F110" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G110" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="N110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E111" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F111" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G111" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="N111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E112" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F112" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G112" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="N112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E113" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F113" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G113" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E114" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F114" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G114" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E115" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F115" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G115" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E116" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F116" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G116" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="N116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E117" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F117" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G117" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="N117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E118" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F118" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G118" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-      <c r="N118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E119" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F119" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G119" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-      <c r="N119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E120" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F120" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G120" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-      <c r="N120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D121" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E121" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F121" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G121" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D122" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E122" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F122" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G122" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D123" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E123" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F123" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G123" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D124" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E124" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F124" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G124" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D125" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E125" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F125" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G125" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D126" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E126" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F126" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G126" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D127" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E127" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F127" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G127" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D128" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E128" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F128" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G128" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D129" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E129" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F129" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G129" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D130" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E130" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F130" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G130" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D131" s="6" t="str">
-        <f t="shared" ref="D131:D179" si="6">IF((N131)&gt;=50,10,"")</f>
-        <v/>
-      </c>
-      <c r="E131" s="2" t="str">
-        <f t="shared" ref="E131:E190" si="7">IF((N131)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="F131" s="2" t="str">
-        <f t="shared" ref="F131:F190" si="8">IF((N131)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="G131" s="6" t="str">
-        <f t="shared" ref="G131:G190" si="9">IF((N131)&gt;=51,IF((N131-50)&gt;50,50,IF((N131-50)&lt;0,0,(N131-50))), "" )</f>
-        <v/>
-      </c>
-      <c r="N131">
-        <f t="shared" ref="N131:N185" si="10">IF((H131+J131+L131+M131+O131)&lt;70,IF((H131+J131+L131+M131+O131)&gt;64,70,(H131+J131+L131+M131+O131)),(H131+J131+L131+M131+O131))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D132" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E132" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F132" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G132" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N132">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D133" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E133" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F133" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G133" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N133">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D134" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E134" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F134" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G134" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N134">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D135" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E135" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F135" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G135" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N135">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D136" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E136" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F136" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G136" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N136">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D137" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E137" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F137" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G137" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N137">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D138" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E138" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F138" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G138" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N138">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D139" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E139" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F139" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G139" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N139">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D140" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E140" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F140" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G140" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N140">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D141" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E141" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F141" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G141" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N141">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D142" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E142" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F142" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G142" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N142">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D143" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E143" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F143" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G143" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N143">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D144" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E144" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F144" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G144" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N144">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D145" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E145" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F145" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G145" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N145">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D146" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E146" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F146" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G146" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N146">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D147" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E147" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F147" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G147" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N147">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D148" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E148" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F148" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G148" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N148">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D149" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E149" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F149" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G149" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N149">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D150" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E150" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F150" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G150" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N150">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D151" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E151" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F151" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G151" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N151">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D152" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E152" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F152" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G152" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N152">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D153" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E153" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F153" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G153" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N153">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D154" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E154" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F154" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G154" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N154">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D155" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E155" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F155" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G155" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N155">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D156" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E156" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F156" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G156" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N156">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D157" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E157" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F157" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G157" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N157">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D158" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E158" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F158" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G158" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N158">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D159" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E159" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F159" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G159" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N159">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D160" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E160" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F160" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G160" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N160">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D161" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E161" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F161" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G161" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N161">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D162" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E162" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F162" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G162" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N162">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D163" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E163" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F163" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G163" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N163">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D164" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E164" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F164" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G164" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N164">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D165" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E165" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F165" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G165" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N165">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D166" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E166" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F166" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G166" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N166">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D167" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E167" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F167" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G167" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N167">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D168" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E168" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F168" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G168" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N168">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D169" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E169" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F169" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G169" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N169">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D170" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E170" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F170" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G170" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N170">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D171" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E171" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F171" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G171" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N171">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D172" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E172" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F172" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G172" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N172">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D173" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E173" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F173" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G173" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D174" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E174" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F174" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G174" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N174">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D175" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E175" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F175" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G175" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N175">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D176" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E176" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F176" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G176" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N176">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D177" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E177" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F177" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G177" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N177">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D178" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E178" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F178" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G178" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N178">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D179" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E179" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F179" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G179" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N179">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D180" s="6" t="str">
-        <f t="shared" ref="D180:D189" si="11">IF((N180)&gt;=70,10,"")</f>
-        <v/>
-      </c>
-      <c r="E180" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F180" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G180" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N180">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D181" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E181" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F181" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G181" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N181">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D182" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E182" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F182" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G182" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N182">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D183" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E183" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F183" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G183" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N183">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D184" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E184" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F184" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G184" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N184">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D185" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E185" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F185" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G185" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N185">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D186" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E186" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F186" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G186" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D187" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E187" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F187" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G187" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D188" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E188" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F188" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G188" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D189" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E189" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F189" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G189" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D190" s="6" t="str">
-        <f t="shared" ref="D190" si="12">IF((N190)&gt;=70,10,"")</f>
-        <v/>
-      </c>
-      <c r="E190" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F190" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G190" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -1104,8 +1104,8 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2322,12 +2322,15 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="6"/>
+      <c r="H49">
+        <v>10</v>
+      </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2685,12 +2688,15 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="6"/>
+      <c r="H64">
+        <v>10</v>
+      </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3083,12 +3089,15 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="6"/>
+      <c r="H81">
+        <v>10</v>
+      </c>
       <c r="K81">
         <v>1</v>
       </c>
       <c r="N81">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -1103,9 +1103,9 @@
   </sheetPr>
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1241,9 +1241,12 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>40</v>
+      </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1355,11 +1358,14 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1377,11 +1383,14 @@
       <c r="F9" s="2"/>
       <c r="G9" s="6"/>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>40</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1402,11 +1411,14 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>35</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1542,9 +1554,12 @@
       <c r="K16">
         <v>1</v>
       </c>
+      <c r="L16">
+        <v>40</v>
+      </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1562,11 +1577,14 @@
       <c r="F17" s="2"/>
       <c r="G17" s="6"/>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1586,9 +1604,12 @@
       <c r="K18">
         <v>1</v>
       </c>
+      <c r="L18">
+        <v>40</v>
+      </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,9 +1773,12 @@
       <c r="K25">
         <v>1</v>
       </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1797,11 +1821,14 @@
         <v>20</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>35</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1822,11 +1849,14 @@
         <v>17</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>35</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1847,11 +1877,14 @@
         <v>15</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>40</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1891,11 +1924,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="6"/>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>20</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1916,11 +1952,14 @@
         <v>19</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1938,11 +1977,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="6"/>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>40</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2059,9 +2101,12 @@
       <c r="K38">
         <v>1</v>
       </c>
+      <c r="L38">
+        <v>40</v>
+      </c>
       <c r="N38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2084,9 +2129,12 @@
       <c r="K39">
         <v>1</v>
       </c>
+      <c r="L39">
+        <v>40</v>
+      </c>
       <c r="N39">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2104,11 +2152,14 @@
       <c r="F40" s="2"/>
       <c r="G40" s="6"/>
       <c r="K40">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>20</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2231,9 +2282,12 @@
       <c r="K45">
         <v>1</v>
       </c>
+      <c r="L45">
+        <v>40</v>
+      </c>
       <c r="N45">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2276,11 +2330,14 @@
         <v>18</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>35</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2326,11 +2383,14 @@
         <v>10</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2351,11 +2411,14 @@
         <v>14</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2398,11 +2461,14 @@
         <v>14</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>35</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2447,9 +2513,12 @@
       <c r="K54">
         <v>1</v>
       </c>
+      <c r="L54">
+        <v>40</v>
+      </c>
       <c r="N54">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2470,11 +2539,14 @@
         <v>19</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2495,11 +2567,14 @@
         <v>18</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>35</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2517,11 +2592,14 @@
       <c r="F57" s="2"/>
       <c r="G57" s="6"/>
       <c r="K57">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>40</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2542,11 +2620,14 @@
         <v>17</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>40</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2592,11 +2673,14 @@
         <v>14</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>35</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2642,11 +2726,14 @@
         <v>17</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>40</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2667,11 +2754,14 @@
         <v>18</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>35</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2692,11 +2782,14 @@
         <v>10</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>20</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2805,11 +2898,14 @@
         <v>16</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>20</v>
       </c>
       <c r="N69">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2852,11 +2948,14 @@
       <c r="F71" s="2"/>
       <c r="G71" s="6"/>
       <c r="K71">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>35</v>
       </c>
       <c r="N71">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2899,11 +2998,14 @@
         <v>16</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>40</v>
       </c>
       <c r="N73">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2924,11 +3026,14 @@
         <v>19</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>35</v>
       </c>
       <c r="N74">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2949,11 +3054,14 @@
         <v>16</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>40</v>
       </c>
       <c r="N75">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2998,9 +3106,12 @@
       <c r="K77">
         <v>1</v>
       </c>
+      <c r="L77">
+        <v>40</v>
+      </c>
       <c r="N77">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3023,9 +3134,12 @@
       <c r="K78">
         <v>1</v>
       </c>
+      <c r="L78">
+        <v>40</v>
+      </c>
       <c r="N78">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3043,11 +3157,14 @@
       <c r="F79" s="2"/>
       <c r="G79" s="6"/>
       <c r="K79">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>20</v>
       </c>
       <c r="N79">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3068,11 +3185,14 @@
         <v>16</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>20</v>
       </c>
       <c r="N80">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3095,9 +3215,12 @@
       <c r="K81">
         <v>1</v>
       </c>
+      <c r="L81">
+        <v>40</v>
+      </c>
       <c r="N81">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3117,9 +3240,12 @@
       <c r="K82">
         <v>1</v>
       </c>
+      <c r="L82">
+        <v>40</v>
+      </c>
       <c r="N82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -1104,8 +1104,8 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1238,6 +1238,9 @@
       <c r="H3">
         <v>17</v>
       </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
@@ -1246,7 +1249,7 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1357,6 +1360,9 @@
       <c r="H8">
         <v>19</v>
       </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
       <c r="K8">
         <v>2</v>
       </c>
@@ -1365,7 +1371,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1382,6 +1388,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6"/>
+      <c r="J9">
+        <v>12</v>
+      </c>
       <c r="K9">
         <v>2</v>
       </c>
@@ -1390,7 +1399,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1410,6 +1419,9 @@
       <c r="H10">
         <v>18</v>
       </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
       <c r="K10">
         <v>2</v>
       </c>
@@ -1418,7 +1430,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1438,12 +1450,18 @@
       <c r="H11">
         <v>15</v>
       </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1460,12 +1478,18 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6"/>
+      <c r="J12">
+        <v>8</v>
+      </c>
       <c r="K12">
         <v>1</v>
       </c>
+      <c r="L12">
+        <v>40</v>
+      </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1504,12 +1528,15 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="6"/>
+      <c r="J14">
+        <v>14</v>
+      </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1551,6 +1578,9 @@
       <c r="H16">
         <v>16</v>
       </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
       <c r="K16">
         <v>1</v>
       </c>
@@ -1559,7 +1589,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1576,6 +1606,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="6"/>
+      <c r="J17">
+        <v>14</v>
+      </c>
       <c r="K17">
         <v>2</v>
       </c>
@@ -1584,7 +1617,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1601,6 +1634,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="6"/>
+      <c r="J18">
+        <v>12</v>
+      </c>
       <c r="K18">
         <v>1</v>
       </c>
@@ -1609,7 +1645,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1651,12 +1687,15 @@
       <c r="H20">
         <v>17</v>
       </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1673,12 +1712,15 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="6"/>
+      <c r="J21">
+        <v>18</v>
+      </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1745,12 +1787,18 @@
       <c r="H24">
         <v>17</v>
       </c>
+      <c r="J24">
+        <v>14</v>
+      </c>
       <c r="K24">
         <v>1</v>
       </c>
+      <c r="L24">
+        <v>40</v>
+      </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1770,6 +1818,9 @@
       <c r="H25">
         <v>16</v>
       </c>
+      <c r="J25">
+        <v>18</v>
+      </c>
       <c r="K25">
         <v>1</v>
       </c>
@@ -1778,7 +1829,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1820,6 +1871,9 @@
       <c r="H27">
         <v>20</v>
       </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
       <c r="K27">
         <v>2</v>
       </c>
@@ -1828,7 +1882,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1848,6 +1902,9 @@
       <c r="H28">
         <v>17</v>
       </c>
+      <c r="J28">
+        <v>14</v>
+      </c>
       <c r="K28">
         <v>2</v>
       </c>
@@ -1856,7 +1913,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1876,6 +1933,9 @@
       <c r="H29">
         <v>15</v>
       </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
       <c r="K29">
         <v>2</v>
       </c>
@@ -1884,7 +1944,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1901,12 +1961,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="6"/>
+      <c r="J30">
+        <v>8</v>
+      </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1923,6 +1986,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="6"/>
+      <c r="J31">
+        <v>12</v>
+      </c>
       <c r="K31">
         <v>2</v>
       </c>
@@ -1931,7 +1997,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1951,6 +2017,9 @@
       <c r="H32">
         <v>19</v>
       </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
       <c r="K32">
         <v>2</v>
       </c>
@@ -1959,7 +2028,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1976,6 +2045,9 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="6"/>
+      <c r="J33">
+        <v>8</v>
+      </c>
       <c r="K33">
         <v>2</v>
       </c>
@@ -1984,7 +2056,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2004,12 +2076,15 @@
       <c r="H34">
         <v>16</v>
       </c>
+      <c r="J34">
+        <v>12</v>
+      </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2051,12 +2126,15 @@
       <c r="H36">
         <v>16</v>
       </c>
+      <c r="J36">
+        <v>16</v>
+      </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2076,12 +2154,15 @@
       <c r="H37">
         <v>18</v>
       </c>
+      <c r="J37">
+        <v>14</v>
+      </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2098,6 +2179,9 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="6"/>
+      <c r="J38">
+        <v>10</v>
+      </c>
       <c r="K38">
         <v>1</v>
       </c>
@@ -2106,7 +2190,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2126,6 +2210,9 @@
       <c r="H39">
         <v>19</v>
       </c>
+      <c r="J39">
+        <v>18</v>
+      </c>
       <c r="K39">
         <v>1</v>
       </c>
@@ -2134,7 +2221,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2151,6 +2238,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="6"/>
+      <c r="J40">
+        <v>20</v>
+      </c>
       <c r="K40">
         <v>2</v>
       </c>
@@ -2159,7 +2249,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2179,12 +2269,18 @@
       <c r="H41">
         <v>14</v>
       </c>
+      <c r="J41">
+        <v>14</v>
+      </c>
       <c r="K41">
         <v>1</v>
       </c>
+      <c r="L41">
+        <v>40</v>
+      </c>
       <c r="N41">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2204,12 +2300,18 @@
       <c r="H42">
         <v>17</v>
       </c>
+      <c r="J42">
+        <v>12</v>
+      </c>
       <c r="K42">
         <v>1</v>
       </c>
+      <c r="L42">
+        <v>40</v>
+      </c>
       <c r="N42">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2254,12 +2356,18 @@
       <c r="H44">
         <v>18</v>
       </c>
+      <c r="J44">
+        <v>12</v>
+      </c>
       <c r="K44">
         <v>1</v>
       </c>
+      <c r="L44">
+        <v>40</v>
+      </c>
       <c r="N44">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2279,6 +2387,9 @@
       <c r="H45">
         <v>17</v>
       </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
       <c r="K45">
         <v>1</v>
       </c>
@@ -2287,7 +2398,7 @@
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2304,12 +2415,15 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="6"/>
+      <c r="J46">
+        <v>20</v>
+      </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2329,6 +2443,9 @@
       <c r="H47">
         <v>18</v>
       </c>
+      <c r="J47">
+        <v>14</v>
+      </c>
       <c r="K47">
         <v>2</v>
       </c>
@@ -2337,7 +2454,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2357,12 +2474,15 @@
       <c r="H48">
         <v>19</v>
       </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2382,6 +2502,9 @@
       <c r="H49">
         <v>10</v>
       </c>
+      <c r="J49">
+        <v>20</v>
+      </c>
       <c r="K49">
         <v>2</v>
       </c>
@@ -2390,7 +2513,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2410,6 +2533,9 @@
       <c r="H50">
         <v>14</v>
       </c>
+      <c r="J50">
+        <v>20</v>
+      </c>
       <c r="K50">
         <v>2</v>
       </c>
@@ -2418,7 +2544,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2435,12 +2561,15 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="6"/>
+      <c r="J51">
+        <v>10</v>
+      </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2460,6 +2589,9 @@
       <c r="H52">
         <v>14</v>
       </c>
+      <c r="J52">
+        <v>20</v>
+      </c>
       <c r="K52">
         <v>2</v>
       </c>
@@ -2468,7 +2600,7 @@
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2510,6 +2642,9 @@
       <c r="H54">
         <v>20</v>
       </c>
+      <c r="J54">
+        <v>12</v>
+      </c>
       <c r="K54">
         <v>1</v>
       </c>
@@ -2518,7 +2653,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2538,6 +2673,9 @@
       <c r="H55">
         <v>19</v>
       </c>
+      <c r="J55">
+        <v>14</v>
+      </c>
       <c r="K55">
         <v>2</v>
       </c>
@@ -2546,7 +2684,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2566,6 +2704,9 @@
       <c r="H56">
         <v>18</v>
       </c>
+      <c r="J56">
+        <v>12</v>
+      </c>
       <c r="K56">
         <v>2</v>
       </c>
@@ -2574,7 +2715,7 @@
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2591,6 +2732,9 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="6"/>
+      <c r="J57">
+        <v>8</v>
+      </c>
       <c r="K57">
         <v>2</v>
       </c>
@@ -2599,7 +2743,7 @@
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2619,6 +2763,9 @@
       <c r="H58">
         <v>17</v>
       </c>
+      <c r="J58">
+        <v>12</v>
+      </c>
       <c r="K58">
         <v>2</v>
       </c>
@@ -2627,7 +2774,7 @@
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2647,12 +2794,18 @@
       <c r="H59">
         <v>20</v>
       </c>
+      <c r="J59">
+        <v>12</v>
+      </c>
       <c r="K59">
         <v>1</v>
       </c>
+      <c r="L59">
+        <v>40</v>
+      </c>
       <c r="N59">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2672,6 +2825,9 @@
       <c r="H60">
         <v>14</v>
       </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
       <c r="K60">
         <v>2</v>
       </c>
@@ -2680,7 +2836,7 @@
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2700,12 +2856,18 @@
       <c r="H61">
         <v>17</v>
       </c>
+      <c r="J61">
+        <v>12</v>
+      </c>
       <c r="K61">
         <v>1</v>
       </c>
+      <c r="L61">
+        <v>40</v>
+      </c>
       <c r="N61">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2725,6 +2887,9 @@
       <c r="H62">
         <v>17</v>
       </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
       <c r="K62">
         <v>2</v>
       </c>
@@ -2733,7 +2898,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2753,6 +2918,9 @@
       <c r="H63">
         <v>18</v>
       </c>
+      <c r="J63">
+        <v>10</v>
+      </c>
       <c r="K63">
         <v>2</v>
       </c>
@@ -2761,7 +2929,7 @@
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2781,6 +2949,9 @@
       <c r="H64">
         <v>10</v>
       </c>
+      <c r="J64">
+        <v>12</v>
+      </c>
       <c r="K64">
         <v>2</v>
       </c>
@@ -2789,7 +2960,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2897,6 +3068,9 @@
       <c r="H69">
         <v>16</v>
       </c>
+      <c r="J69">
+        <v>12</v>
+      </c>
       <c r="K69">
         <v>2</v>
       </c>
@@ -2905,7 +3079,7 @@
       </c>
       <c r="N69">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2925,12 +3099,18 @@
       <c r="H70">
         <v>18</v>
       </c>
+      <c r="J70">
+        <v>12</v>
+      </c>
       <c r="K70">
         <v>1</v>
+      </c>
+      <c r="L70">
+        <v>40</v>
       </c>
       <c r="N70">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,6 +3127,9 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="6"/>
+      <c r="J71">
+        <v>20</v>
+      </c>
       <c r="K71">
         <v>2</v>
       </c>
@@ -2955,7 +3138,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2972,12 +3155,15 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="6"/>
+      <c r="J72">
+        <v>4</v>
+      </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="N72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2997,6 +3183,9 @@
       <c r="H73">
         <v>16</v>
       </c>
+      <c r="J73">
+        <v>8</v>
+      </c>
       <c r="K73">
         <v>2</v>
       </c>
@@ -3005,7 +3194,7 @@
       </c>
       <c r="N73">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3025,6 +3214,9 @@
       <c r="H74">
         <v>19</v>
       </c>
+      <c r="J74">
+        <v>20</v>
+      </c>
       <c r="K74">
         <v>2</v>
       </c>
@@ -3033,7 +3225,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3053,6 +3245,9 @@
       <c r="H75">
         <v>16</v>
       </c>
+      <c r="J75">
+        <v>8</v>
+      </c>
       <c r="K75">
         <v>2</v>
       </c>
@@ -3061,7 +3256,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3078,12 +3273,18 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="6"/>
+      <c r="J76">
+        <v>20</v>
+      </c>
       <c r="K76">
         <v>1</v>
+      </c>
+      <c r="L76">
+        <v>40</v>
       </c>
       <c r="N76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3103,6 +3304,9 @@
       <c r="H77">
         <v>19</v>
       </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
       <c r="K77">
         <v>1</v>
       </c>
@@ -3111,7 +3315,7 @@
       </c>
       <c r="N77">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3131,6 +3335,9 @@
       <c r="H78">
         <v>18</v>
       </c>
+      <c r="J78">
+        <v>20</v>
+      </c>
       <c r="K78">
         <v>1</v>
       </c>
@@ -3139,7 +3346,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3156,6 +3363,9 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="6"/>
+      <c r="J79">
+        <v>20</v>
+      </c>
       <c r="K79">
         <v>2</v>
       </c>
@@ -3164,7 +3374,7 @@
       </c>
       <c r="N79">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3184,6 +3394,9 @@
       <c r="H80">
         <v>16</v>
       </c>
+      <c r="J80">
+        <v>14</v>
+      </c>
       <c r="K80">
         <v>2</v>
       </c>
@@ -3192,7 +3405,7 @@
       </c>
       <c r="N80">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3212,6 +3425,9 @@
       <c r="H81">
         <v>10</v>
       </c>
+      <c r="J81">
+        <v>18</v>
+      </c>
       <c r="K81">
         <v>1</v>
       </c>
@@ -3220,7 +3436,7 @@
       </c>
       <c r="N81">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3237,6 +3453,9 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="6"/>
+      <c r="J82">
+        <v>12</v>
+      </c>
       <c r="K82">
         <v>1</v>
       </c>
@@ -3245,7 +3464,7 @@
       </c>
       <c r="N82">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -1104,8 +1104,8 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1272,9 +1272,12 @@
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>40</v>
+      </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1367,11 +1370,11 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1693,9 +1696,12 @@
       <c r="K20">
         <v>1</v>
       </c>
+      <c r="L20">
+        <v>40</v>
+      </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1718,9 +1724,12 @@
       <c r="K21">
         <v>1</v>
       </c>
+      <c r="L21">
+        <v>35</v>
+      </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2082,9 +2091,12 @@
       <c r="K34">
         <v>1</v>
       </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
       <c r="N34">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2160,9 +2172,12 @@
       <c r="K37">
         <v>1</v>
       </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2334,9 +2349,12 @@
       <c r="K43">
         <v>1</v>
       </c>
+      <c r="L43">
+        <v>40</v>
+      </c>
       <c r="N43">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2480,9 +2498,12 @@
       <c r="K48">
         <v>1</v>
       </c>
+      <c r="L48">
+        <v>38</v>
+      </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2509,11 +2530,11 @@
         <v>2</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2567,9 +2588,12 @@
       <c r="K51">
         <v>1</v>
       </c>
+      <c r="L51">
+        <v>40</v>
+      </c>
       <c r="N51">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2620,9 +2644,12 @@
       <c r="K53">
         <v>1</v>
       </c>
+      <c r="L53">
+        <v>40</v>
+      </c>
       <c r="N53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2680,11 +2707,11 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3161,9 +3188,12 @@
       <c r="K72">
         <v>1</v>
       </c>
+      <c r="L72">
+        <v>20</v>
+      </c>
       <c r="N72">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3401,11 +3431,11 @@
         <v>2</v>
       </c>
       <c r="L80">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N80">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3487,9 +3517,12 @@
       <c r="K83">
         <v>1</v>
       </c>
+      <c r="L83">
+        <v>20</v>
+      </c>
       <c r="N83">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -1105,7 +1105,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1231,10 +1231,22 @@
       <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D66" si="0">IF((N3)&gt;=50,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E66" si="1">IF((N3)&gt;=50,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F66" si="2">IF((N3)&gt;=50,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G66" si="3">IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
+        <v>21</v>
+      </c>
       <c r="H3">
         <v>17</v>
       </c>
@@ -1248,7 +1260,7 @@
         <v>40</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="0">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
+        <f t="shared" ref="N3:N66" si="4">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
         <v>71</v>
       </c>
     </row>
@@ -1262,12 +1274,27 @@
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
       <c r="H4">
         <v>20</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1276,8 +1303,8 @@
         <v>40</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1290,15 +1317,27 @@
       <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G5" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1312,15 +1351,27 @@
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1334,15 +1385,27 @@
       <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1356,10 +1419,22 @@
       <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
       <c r="H8">
         <v>19</v>
       </c>
@@ -1373,7 +1448,7 @@
         <v>30</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
     </row>
@@ -1387,10 +1462,22 @@
       <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="J9">
         <v>12</v>
       </c>
@@ -1401,7 +1488,7 @@
         <v>40</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
     </row>
@@ -1415,10 +1502,22 @@
       <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H10">
         <v>18</v>
       </c>
@@ -1432,7 +1531,7 @@
         <v>35</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1446,10 +1545,22 @@
       <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
       <c r="H11">
         <v>15</v>
       </c>
@@ -1463,7 +1574,7 @@
         <v>40</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
     </row>
@@ -1477,10 +1588,22 @@
       <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="J12">
         <v>8</v>
       </c>
@@ -1491,7 +1614,7 @@
         <v>40</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -1505,15 +1628,27 @@
       <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1527,10 +1662,22 @@
       <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="J14">
         <v>14</v>
       </c>
@@ -1538,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -1552,15 +1699,27 @@
       <c r="C15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G15" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1574,10 +1733,22 @@
       <c r="C16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
       <c r="H16">
         <v>16</v>
       </c>
@@ -1591,7 +1762,7 @@
         <v>40</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
     </row>
@@ -1605,10 +1776,22 @@
       <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="6"/>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G17" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="J17">
         <v>14</v>
       </c>
@@ -1619,7 +1802,7 @@
         <v>35</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
     </row>
@@ -1633,10 +1816,22 @@
       <c r="C18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="J18">
         <v>12</v>
       </c>
@@ -1647,7 +1842,7 @@
         <v>40</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
     </row>
@@ -1661,15 +1856,27 @@
       <c r="C19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="6"/>
+      <c r="D19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G19" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1683,10 +1890,22 @@
       <c r="C20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="6"/>
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H20">
         <v>17</v>
       </c>
@@ -1700,7 +1919,7 @@
         <v>40</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1714,10 +1933,22 @@
       <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="J21">
         <v>18</v>
       </c>
@@ -1728,7 +1959,7 @@
         <v>35</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
     </row>
@@ -1742,10 +1973,22 @@
       <c r="C22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="6"/>
+      <c r="D22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G22" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="H22">
         <v>18</v>
       </c>
@@ -1753,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -1767,15 +2010,27 @@
       <c r="C23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="6"/>
+      <c r="D23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G23" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1789,10 +2044,22 @@
       <c r="C24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="6"/>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="H24">
         <v>17</v>
       </c>
@@ -1806,7 +2073,7 @@
         <v>40</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
     </row>
@@ -1820,10 +2087,22 @@
       <c r="C25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="H25">
         <v>16</v>
       </c>
@@ -1837,7 +2116,7 @@
         <v>40</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
     </row>
@@ -1851,15 +2130,27 @@
       <c r="C26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="6"/>
+      <c r="D26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1873,10 +2164,22 @@
       <c r="C27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="6"/>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H27">
         <v>20</v>
       </c>
@@ -1890,7 +2193,7 @@
         <v>35</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1904,10 +2207,22 @@
       <c r="C28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H28">
         <v>17</v>
       </c>
@@ -1921,7 +2236,7 @@
         <v>35</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1935,10 +2250,22 @@
       <c r="C29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="6"/>
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H29">
         <v>15</v>
       </c>
@@ -1952,7 +2279,7 @@
         <v>40</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1966,19 +2293,34 @@
       <c r="C30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="6"/>
+      <c r="D30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G30" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="J30">
         <v>8</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
       <c r="N30">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1991,10 +2333,22 @@
       <c r="C31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="6"/>
+      <c r="D31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G31" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="J31">
         <v>12</v>
       </c>
@@ -2005,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -2019,10 +2373,22 @@
       <c r="C32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="6"/>
+      <c r="D32" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="H32">
         <v>19</v>
       </c>
@@ -2036,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
     </row>
@@ -2050,10 +2416,22 @@
       <c r="C33" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="6"/>
+      <c r="D33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G33" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="J33">
         <v>8</v>
       </c>
@@ -2064,7 +2442,7 @@
         <v>40</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -2078,10 +2456,22 @@
       <c r="C34" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="6"/>
+      <c r="D34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G34" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="H34">
         <v>16</v>
       </c>
@@ -2095,7 +2485,7 @@
         <v>20</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -2109,15 +2499,27 @@
       <c r="C35" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="6"/>
+      <c r="D35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G35" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2131,10 +2533,22 @@
       <c r="C36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="6"/>
+      <c r="D36" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="H36">
         <v>16</v>
       </c>
@@ -2144,9 +2558,12 @@
       <c r="K36">
         <v>1</v>
       </c>
+      <c r="L36">
+        <v>40</v>
+      </c>
       <c r="N36">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2159,10 +2576,22 @@
       <c r="C37" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="6"/>
+      <c r="D37" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="H37">
         <v>18</v>
       </c>
@@ -2176,7 +2605,7 @@
         <v>20</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
     </row>
@@ -2190,10 +2619,22 @@
       <c r="C38" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="6"/>
+      <c r="D38" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G38" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="J38">
         <v>10</v>
       </c>
@@ -2204,7 +2645,7 @@
         <v>40</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
@@ -2218,10 +2659,22 @@
       <c r="C39" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="6"/>
+      <c r="D39" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
       <c r="H39">
         <v>19</v>
       </c>
@@ -2235,7 +2688,7 @@
         <v>40</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
@@ -2249,10 +2702,22 @@
       <c r="C40" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="6"/>
+      <c r="D40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G40" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="J40">
         <v>20</v>
       </c>
@@ -2263,7 +2728,7 @@
         <v>20</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
@@ -2277,10 +2742,22 @@
       <c r="C41" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="6"/>
+      <c r="D41" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H41">
         <v>14</v>
       </c>
@@ -2294,7 +2771,7 @@
         <v>40</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2308,10 +2785,22 @@
       <c r="C42" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="6"/>
+      <c r="D42" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H42">
         <v>17</v>
       </c>
@@ -2325,7 +2814,7 @@
         <v>40</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2339,13 +2828,28 @@
       <c r="C43" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="6"/>
+      <c r="D43" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="H43">
         <v>18</v>
       </c>
+      <c r="J43">
+        <v>16</v>
+      </c>
       <c r="K43">
         <v>1</v>
       </c>
@@ -2353,8 +2857,8 @@
         <v>40</v>
       </c>
       <c r="N43">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <f t="shared" si="4"/>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2367,10 +2871,22 @@
       <c r="C44" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="6"/>
+      <c r="D44" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H44">
         <v>18</v>
       </c>
@@ -2384,7 +2900,7 @@
         <v>40</v>
       </c>
       <c r="N44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2398,10 +2914,22 @@
       <c r="C45" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="6"/>
+      <c r="D45" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
       <c r="H45">
         <v>17</v>
       </c>
@@ -2415,7 +2943,7 @@
         <v>40</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
@@ -2429,19 +2957,34 @@
       <c r="C46" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="6"/>
+      <c r="D46" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="J46">
         <v>20</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
+      <c r="L46">
+        <v>40</v>
+      </c>
       <c r="N46">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2454,10 +2997,22 @@
       <c r="C47" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="6"/>
+      <c r="D47" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H47">
         <v>18</v>
       </c>
@@ -2471,7 +3026,7 @@
         <v>35</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2485,10 +3040,22 @@
       <c r="C48" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="6"/>
+      <c r="D48" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H48">
         <v>19</v>
       </c>
@@ -2502,7 +3069,7 @@
         <v>38</v>
       </c>
       <c r="N48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2516,10 +3083,22 @@
       <c r="C49" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="6"/>
+      <c r="D49" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="H49">
         <v>10</v>
       </c>
@@ -2533,7 +3112,7 @@
         <v>30</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
@@ -2547,10 +3126,22 @@
       <c r="C50" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="6"/>
+      <c r="D50" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="H50">
         <v>14</v>
       </c>
@@ -2564,7 +3155,7 @@
         <v>20</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
     </row>
@@ -2578,10 +3169,22 @@
       <c r="C51" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="6"/>
+      <c r="D51" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G51" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="J51">
         <v>10</v>
       </c>
@@ -2592,7 +3195,7 @@
         <v>40</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
@@ -2606,10 +3209,22 @@
       <c r="C52" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="6"/>
+      <c r="D52" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H52">
         <v>14</v>
       </c>
@@ -2623,7 +3238,7 @@
         <v>35</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2637,10 +3252,25 @@
       <c r="C53" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="6"/>
+      <c r="D53" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>11</v>
+      </c>
       <c r="K53">
         <v>1</v>
       </c>
@@ -2648,8 +3278,8 @@
         <v>40</v>
       </c>
       <c r="N53">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2662,10 +3292,22 @@
       <c r="C54" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="6"/>
+      <c r="D54" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="H54">
         <v>20</v>
       </c>
@@ -2679,7 +3321,7 @@
         <v>40</v>
       </c>
       <c r="N54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
@@ -2693,10 +3335,22 @@
       <c r="C55" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="6"/>
+      <c r="D55" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
       <c r="H55">
         <v>19</v>
       </c>
@@ -2710,7 +3364,7 @@
         <v>30</v>
       </c>
       <c r="N55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
     </row>
@@ -2724,10 +3378,22 @@
       <c r="C56" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="6"/>
+      <c r="D56" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H56">
         <v>18</v>
       </c>
@@ -2741,7 +3407,7 @@
         <v>35</v>
       </c>
       <c r="N56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2755,10 +3421,22 @@
       <c r="C57" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="6"/>
+      <c r="D57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G57" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="J57">
         <v>8</v>
       </c>
@@ -2769,7 +3447,7 @@
         <v>40</v>
       </c>
       <c r="N57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -2783,10 +3461,22 @@
       <c r="C58" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="6"/>
+      <c r="D58" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H58">
         <v>17</v>
       </c>
@@ -2800,7 +3490,7 @@
         <v>40</v>
       </c>
       <c r="N58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2814,10 +3504,22 @@
       <c r="C59" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="6"/>
+      <c r="D59" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="H59">
         <v>20</v>
       </c>
@@ -2831,7 +3533,7 @@
         <v>40</v>
       </c>
       <c r="N59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
@@ -2845,10 +3547,22 @@
       <c r="C60" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="6"/>
+      <c r="D60" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="H60">
         <v>14</v>
       </c>
@@ -2862,7 +3576,7 @@
         <v>35</v>
       </c>
       <c r="N60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
@@ -2876,10 +3590,22 @@
       <c r="C61" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="6"/>
+      <c r="D61" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H61">
         <v>17</v>
       </c>
@@ -2893,7 +3619,7 @@
         <v>40</v>
       </c>
       <c r="N61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2907,10 +3633,22 @@
       <c r="C62" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="6"/>
+      <c r="D62" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H62">
         <v>17</v>
       </c>
@@ -2924,7 +3662,7 @@
         <v>40</v>
       </c>
       <c r="N62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2938,10 +3676,22 @@
       <c r="C63" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="6"/>
+      <c r="D63" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
       <c r="H63">
         <v>18</v>
       </c>
@@ -2955,7 +3705,7 @@
         <v>35</v>
       </c>
       <c r="N63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
     </row>
@@ -2969,10 +3719,22 @@
       <c r="C64" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="6"/>
+      <c r="D64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G64" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="H64">
         <v>10</v>
       </c>
@@ -2986,7 +3748,7 @@
         <v>20</v>
       </c>
       <c r="N64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
@@ -3000,15 +3762,27 @@
       <c r="C65" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="6"/>
+      <c r="D65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G65" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3022,15 +3796,27 @@
       <c r="C66" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="6"/>
+      <c r="D66" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G66" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="N66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3044,15 +3830,27 @@
       <c r="C67" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="6"/>
+      <c r="D67" s="6" t="str">
+        <f t="shared" ref="D67:D83" si="5">IF((N67)&gt;=50,10,"")</f>
+        <v/>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" ref="E67:E83" si="6">IF((N67)&gt;=50,20,"")</f>
+        <v/>
+      </c>
+      <c r="F67" s="2" t="str">
+        <f t="shared" ref="F67:F83" si="7">IF((N67)&gt;=50,20,"")</f>
+        <v/>
+      </c>
+      <c r="G67" s="6" t="str">
+        <f t="shared" ref="G67:G83" si="8">IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <v/>
+      </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N83" si="1">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <f t="shared" ref="N67:N83" si="9">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
         <v>0</v>
       </c>
     </row>
@@ -3066,15 +3864,27 @@
       <c r="C68" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="6"/>
+      <c r="D68" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F68" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G68" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3088,10 +3898,22 @@
       <c r="C69" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="6"/>
+      <c r="D69" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F69" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G69" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="H69">
         <v>16</v>
       </c>
@@ -3105,7 +3927,7 @@
         <v>20</v>
       </c>
       <c r="N69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
     </row>
@@ -3119,10 +3941,22 @@
       <c r="C70" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="6"/>
+      <c r="D70" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H70">
         <v>18</v>
       </c>
@@ -3136,7 +3970,7 @@
         <v>40</v>
       </c>
       <c r="N70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3150,10 +3984,22 @@
       <c r="C71" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="6"/>
+      <c r="D71" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
       <c r="J71">
         <v>20</v>
       </c>
@@ -3164,7 +4010,7 @@
         <v>35</v>
       </c>
       <c r="N71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
     </row>
@@ -3178,10 +4024,22 @@
       <c r="C72" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="6"/>
+      <c r="D72" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F72" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G72" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="J72">
         <v>4</v>
       </c>
@@ -3192,7 +4050,7 @@
         <v>20</v>
       </c>
       <c r="N72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -3206,10 +4064,22 @@
       <c r="C73" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="6"/>
+      <c r="D73" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G73" s="6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
       <c r="H73">
         <v>16</v>
       </c>
@@ -3223,7 +4093,7 @@
         <v>40</v>
       </c>
       <c r="N73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
     </row>
@@ -3237,10 +4107,22 @@
       <c r="C74" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="6"/>
+      <c r="D74" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G74" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
       <c r="H74">
         <v>19</v>
       </c>
@@ -3254,7 +4136,7 @@
         <v>35</v>
       </c>
       <c r="N74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
     </row>
@@ -3268,10 +4150,22 @@
       <c r="C75" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="6"/>
+      <c r="D75" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
       <c r="H75">
         <v>16</v>
       </c>
@@ -3285,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="N75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
     </row>
@@ -3299,10 +4193,22 @@
       <c r="C76" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="6"/>
+      <c r="D76" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G76" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
       <c r="J76">
         <v>20</v>
       </c>
@@ -3313,7 +4219,7 @@
         <v>40</v>
       </c>
       <c r="N76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -3327,10 +4233,22 @@
       <c r="C77" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="6"/>
+      <c r="D77" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G77" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H77">
         <v>19</v>
       </c>
@@ -3344,7 +4262,7 @@
         <v>40</v>
       </c>
       <c r="N77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3358,10 +4276,22 @@
       <c r="C78" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="6"/>
+      <c r="D78" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G78" s="6">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
       <c r="H78">
         <v>18</v>
       </c>
@@ -3375,7 +4305,7 @@
         <v>40</v>
       </c>
       <c r="N78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
     </row>
@@ -3389,10 +4319,22 @@
       <c r="C79" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="6"/>
+      <c r="D79" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F79" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G79" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="J79">
         <v>20</v>
       </c>
@@ -3403,7 +4345,7 @@
         <v>20</v>
       </c>
       <c r="N79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
     </row>
@@ -3417,10 +4359,22 @@
       <c r="C80" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="6"/>
+      <c r="D80" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G80" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
       <c r="H80">
         <v>16</v>
       </c>
@@ -3434,7 +4388,7 @@
         <v>30</v>
       </c>
       <c r="N80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -3448,10 +4402,22 @@
       <c r="C81" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="6"/>
+      <c r="D81" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G81" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H81">
         <v>10</v>
       </c>
@@ -3465,7 +4431,7 @@
         <v>40</v>
       </c>
       <c r="N81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3479,10 +4445,22 @@
       <c r="C82" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="6"/>
+      <c r="D82" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G82" s="6">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
       <c r="J82">
         <v>12</v>
       </c>
@@ -3493,7 +4471,7 @@
         <v>40</v>
       </c>
       <c r="N82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
     </row>
@@ -3507,13 +4485,28 @@
       <c r="C83" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="6"/>
+      <c r="D83" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F83" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G83" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="H83">
         <v>17</v>
       </c>
+      <c r="J83">
+        <v>11</v>
+      </c>
       <c r="K83">
         <v>1</v>
       </c>
@@ -3521,8 +4514,8 @@
         <v>20</v>
       </c>
       <c r="N83">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f t="shared" si="9"/>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -1104,8 +1104,8 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D83"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3181,9 +3181,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G51" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="G51" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
       </c>
       <c r="J51">
         <v>10</v>
@@ -3196,7 +3199,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>JOSE  FRANCISCO DIAZ CORONA</t>
+  </si>
+  <si>
+    <t>Entro 4 semanas despues de la fecha limite al grupo</t>
   </si>
 </sst>
 </file>
@@ -1101,11 +1104,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1129,7 @@
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1171,7 +1174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1288,7 +1291,7 @@
       </c>
       <c r="G4" s="6">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -1304,10 +1307,16 @@
       </c>
       <c r="N4">
         <f t="shared" si="4"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="O4">
+        <v>-5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1341,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1409,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1452,7 +1461,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1535,7 +1544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1559,7 +1568,7 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H11">
         <v>15</v>
@@ -1573,12 +1582,15 @@
       <c r="L11">
         <v>40</v>
       </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
       <c r="N11">
         <f t="shared" si="4"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1618,7 +1630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1652,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1689,7 +1701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1723,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -1806,7 +1818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -1846,7 +1858,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -1880,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -1923,7 +1935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -1933,21 +1945,21 @@
       <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="3"/>
-        <v>3</v>
+      <c r="D21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J21">
         <v>18</v>
@@ -1960,10 +1972,16 @@
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="O21">
+        <v>-5</v>
+      </c>
+      <c r="P21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2000,7 +2018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -2034,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -2077,7 +2095,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -2120,7 +2138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -2154,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -2197,7 +2215,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -2240,7 +2258,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -2264,7 +2282,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H29">
         <v>15</v>
@@ -2278,12 +2296,15 @@
       <c r="L29">
         <v>40</v>
       </c>
+      <c r="M29">
+        <v>30</v>
+      </c>
       <c r="N29">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -2323,7 +2344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -2363,7 +2384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -2387,7 +2408,7 @@
       </c>
       <c r="G32" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H32">
         <v>19</v>
@@ -2401,9 +2422,12 @@
       <c r="L32">
         <v>20</v>
       </c>
+      <c r="M32">
+        <v>20</v>
+      </c>
       <c r="N32">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2456,21 +2480,21 @@
       <c r="C34" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G34" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D34" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="H34">
         <v>16</v>
@@ -2484,9 +2508,12 @@
       <c r="L34">
         <v>20</v>
       </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
       <c r="N34">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2547,7 +2574,7 @@
       </c>
       <c r="G36" s="6">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H36">
         <v>16</v>
@@ -2561,9 +2588,12 @@
       <c r="L36">
         <v>40</v>
       </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2590,7 +2620,7 @@
       </c>
       <c r="G37" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>18</v>
@@ -2604,9 +2634,12 @@
       <c r="L37">
         <v>20</v>
       </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
       <c r="N37">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2631,9 +2664,9 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G38" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="G38" s="6">
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="J38">
         <v>10</v>
@@ -2644,9 +2677,12 @@
       <c r="L38">
         <v>40</v>
       </c>
+      <c r="M38">
+        <v>30</v>
+      </c>
       <c r="N38">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3054,7 +3090,7 @@
       </c>
       <c r="G48" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H48">
         <v>19</v>
@@ -3068,12 +3104,15 @@
       <c r="L48">
         <v>38</v>
       </c>
+      <c r="M48">
+        <v>30</v>
+      </c>
       <c r="N48">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -3116,7 +3155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -3159,7 +3198,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -3183,7 +3222,7 @@
       </c>
       <c r="G51" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>10</v>
@@ -3197,12 +3236,15 @@
       <c r="L51">
         <v>40</v>
       </c>
+      <c r="M51">
+        <v>30</v>
+      </c>
       <c r="N51">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -3226,7 +3268,7 @@
       </c>
       <c r="G52" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H52">
         <v>14</v>
@@ -3240,12 +3282,15 @@
       <c r="L52">
         <v>35</v>
       </c>
+      <c r="M52">
+        <v>30</v>
+      </c>
       <c r="N52">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -3285,7 +3330,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -3328,7 +3373,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -3371,7 +3416,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -3414,7 +3459,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -3424,21 +3469,21 @@
       <c r="C57" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D57" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G57" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D57" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="J57">
         <v>8</v>
@@ -3449,12 +3494,15 @@
       <c r="L57">
         <v>40</v>
       </c>
+      <c r="M57">
+        <v>20</v>
+      </c>
       <c r="N57">
         <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -3497,7 +3545,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>57</v>
       </c>
@@ -3521,7 +3569,7 @@
       </c>
       <c r="G59" s="6">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H59">
         <v>20</v>
@@ -3535,12 +3583,15 @@
       <c r="L59">
         <v>40</v>
       </c>
+      <c r="M59">
+        <v>30</v>
+      </c>
       <c r="N59">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -3583,7 +3634,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -3626,7 +3677,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -3669,7 +3720,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -3712,7 +3763,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -3752,7 +3803,13 @@
       </c>
       <c r="N64">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="O64">
+        <v>-5</v>
+      </c>
+      <c r="P64" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4250,7 +4307,7 @@
       </c>
       <c r="G77" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H77">
         <v>19</v>
@@ -4264,9 +4321,12 @@
       <c r="L77">
         <v>40</v>
       </c>
+      <c r="M77">
+        <v>29</v>
+      </c>
       <c r="N77">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4488,21 +4548,21 @@
       <c r="C83" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D83" s="6" t="str">
+      <c r="D83" s="6">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E83" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E83" s="2">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F83" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F83" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G83" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G83" s="6">
         <f t="shared" si="8"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H83">
         <v>17</v>
@@ -4516,9 +4576,12 @@
       <c r="L83">
         <v>20</v>
       </c>
+      <c r="M83">
+        <v>20</v>
+      </c>
       <c r="N83">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -1107,8 +1107,8 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G4" s="6">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -1305,9 +1305,12 @@
       <c r="L4">
         <v>40</v>
       </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
       <c r="N4">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="O4">
         <v>-5</v>

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -557,9 +557,6 @@
   </si>
   <si>
     <t>JOSE  FRANCISCO DIAZ CORONA</t>
-  </si>
-  <si>
-    <t>Entro 4 semanas despues de la fecha limite al grupo</t>
   </si>
 </sst>
 </file>
@@ -1104,11 +1101,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1129,7 +1126,7 @@
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1174,7 +1171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -1224,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1267,7 +1264,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1310,16 +1307,10 @@
       </c>
       <c r="N4">
         <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="O4">
-        <v>-5</v>
-      </c>
-      <c r="P4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1353,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1387,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1421,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1464,7 +1455,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1504,7 +1495,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1547,7 +1538,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1593,7 +1584,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1633,7 +1624,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1667,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1704,7 +1695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1738,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1781,7 +1772,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -1821,7 +1812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -1861,7 +1852,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -1895,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -1938,7 +1929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -1948,21 +1939,21 @@
       <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G21" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="J21">
         <v>18</v>
@@ -1975,16 +1966,10 @@
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="O21">
-        <v>-5</v>
-      </c>
-      <c r="P21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2021,7 +2006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -2055,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -2098,7 +2083,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -2141,7 +2126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -2175,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -2218,7 +2203,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -2261,7 +2246,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -2307,7 +2292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -2347,7 +2332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -2387,7 +2372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -2741,21 +2726,21 @@
       <c r="C40" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G40" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D40" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="J40">
         <v>20</v>
@@ -2766,9 +2751,12 @@
       <c r="L40">
         <v>20</v>
       </c>
+      <c r="M40">
+        <v>30</v>
+      </c>
       <c r="N40">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3115,7 +3103,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -3158,7 +3146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -3201,7 +3189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -3247,7 +3235,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -3293,7 +3281,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -3333,7 +3321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -3376,7 +3364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -3419,7 +3407,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -3462,7 +3450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -3505,7 +3493,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -3548,7 +3536,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>57</v>
       </c>
@@ -3594,7 +3582,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -3637,7 +3625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -3680,7 +3668,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -3723,7 +3711,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -3766,7 +3754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -3806,13 +3794,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="O64">
-        <v>-5</v>
-      </c>
-      <c r="P64" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4270,7 +4252,7 @@
       </c>
       <c r="G76" s="6">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J76">
         <v>20</v>
@@ -4281,9 +4263,12 @@
       <c r="L76">
         <v>40</v>
       </c>
+      <c r="M76">
+        <v>30</v>
+      </c>
       <c r="N76">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -1104,8 +1104,8 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L40" sqref="L40"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>19</v>
@@ -1450,9 +1450,12 @@
       <c r="L8">
         <v>30</v>
       </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
       <c r="N8">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1690,9 +1693,12 @@
       <c r="K14">
         <v>1</v>
       </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
       <c r="N14">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1753,7 +1759,7 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="H16">
         <v>16</v>
@@ -1767,9 +1773,12 @@
       <c r="L16">
         <v>40</v>
       </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
       <c r="N16">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1782,21 +1791,21 @@
       <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G17" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="J17">
         <v>14</v>
@@ -1807,9 +1816,12 @@
       <c r="L17">
         <v>35</v>
       </c>
+      <c r="M17">
+        <v>25</v>
+      </c>
       <c r="N17">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2107,7 +2119,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H25">
         <v>16</v>
@@ -2121,9 +2133,12 @@
       <c r="L25">
         <v>40</v>
       </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
       <c r="N25">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2184,7 +2199,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>20</v>
@@ -2198,9 +2213,12 @@
       <c r="L27">
         <v>35</v>
       </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
       <c r="N27">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2428,21 +2446,21 @@
       <c r="C33" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G33" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="J33">
         <v>8</v>
@@ -2453,9 +2471,12 @@
       <c r="L33">
         <v>40</v>
       </c>
+      <c r="M33">
+        <v>20</v>
+      </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2912,7 +2933,7 @@
       </c>
       <c r="G44" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>18</v>
@@ -2926,9 +2947,12 @@
       <c r="L44">
         <v>40</v>
       </c>
+      <c r="M44">
+        <v>15</v>
+      </c>
       <c r="N44">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3127,7 +3151,7 @@
       </c>
       <c r="G49" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>10</v>
@@ -3141,9 +3165,12 @@
       <c r="L49">
         <v>30</v>
       </c>
+      <c r="M49">
+        <v>30</v>
+      </c>
       <c r="N49">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3170,7 +3197,7 @@
       </c>
       <c r="G50" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H50">
         <v>14</v>
@@ -3184,9 +3211,12 @@
       <c r="L50">
         <v>20</v>
       </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
       <c r="N50">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3388,7 +3418,7 @@
       </c>
       <c r="G55" s="6">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H55">
         <v>19</v>
@@ -3402,9 +3432,12 @@
       <c r="L55">
         <v>30</v>
       </c>
+      <c r="M55">
+        <v>30</v>
+      </c>
       <c r="N55">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3735,7 +3768,7 @@
       </c>
       <c r="G63" s="6">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H63">
         <v>18</v>
@@ -3749,9 +3782,12 @@
       <c r="L63">
         <v>35</v>
       </c>
+      <c r="M63">
+        <v>30</v>
+      </c>
       <c r="N63">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3764,21 +3800,21 @@
       <c r="C64" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E64" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F64" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G64" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D64" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="H64">
         <v>10</v>
@@ -3792,9 +3828,12 @@
       <c r="L64">
         <v>20</v>
       </c>
+      <c r="M64">
+        <v>30</v>
+      </c>
       <c r="N64">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4043,7 +4082,7 @@
       </c>
       <c r="G71" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J71">
         <v>20</v>
@@ -4054,9 +4093,12 @@
       <c r="L71">
         <v>35</v>
       </c>
+      <c r="M71">
+        <v>30</v>
+      </c>
       <c r="N71">
         <f t="shared" si="9"/>
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4123,7 +4165,7 @@
       </c>
       <c r="G73" s="6">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H73">
         <v>16</v>
@@ -4137,9 +4179,12 @@
       <c r="L73">
         <v>40</v>
       </c>
+      <c r="M73">
+        <v>30</v>
+      </c>
       <c r="N73">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4209,7 +4254,7 @@
       </c>
       <c r="G75" s="6">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>16</v>
@@ -4223,9 +4268,12 @@
       <c r="L75">
         <v>40</v>
       </c>
+      <c r="M75">
+        <v>20</v>
+      </c>
       <c r="N75">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4341,7 +4389,7 @@
       </c>
       <c r="G78" s="6">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H78">
         <v>18</v>
@@ -4355,9 +4403,12 @@
       <c r="L78">
         <v>40</v>
       </c>
+      <c r="M78">
+        <v>30</v>
+      </c>
       <c r="N78">
         <f t="shared" si="9"/>
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4370,21 +4421,21 @@
       <c r="C79" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="6" t="str">
+      <c r="D79" s="6">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E79" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E79" s="2">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F79" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F79" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G79" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G79" s="6">
         <f t="shared" si="8"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="J79">
         <v>20</v>
@@ -4395,9 +4446,12 @@
       <c r="L79">
         <v>20</v>
       </c>
+      <c r="M79">
+        <v>30</v>
+      </c>
       <c r="N79">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4424,7 +4478,7 @@
       </c>
       <c r="G80" s="6">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H80">
         <v>16</v>
@@ -4438,9 +4492,12 @@
       <c r="L80">
         <v>30</v>
       </c>
+      <c r="M80">
+        <v>30</v>
+      </c>
       <c r="N80">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C4AE384A-7E86-446C-92C6-43369297CEFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$83</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -557,12 +558,15 @@
   </si>
   <si>
     <t>JOSE  FRANCISCO DIAZ CORONA</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1097,18 +1101,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -4629,8 +4633,13 @@
         <v>70</v>
       </c>
     </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O1">
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C4AE384A-7E86-446C-92C6-43369297CEFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A540301E-70F0-49A5-A314-E25B763F7581}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1108,8 +1108,8 @@
   <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="G58" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H58">
         <v>17</v>
@@ -3568,9 +3568,12 @@
       <c r="L58">
         <v>40</v>
       </c>
+      <c r="M58">
+        <v>20</v>
+      </c>
       <c r="N58">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A540301E-70F0-49A5-A314-E25B763F7581}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -566,7 +565,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1101,7 +1100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -1109,10 +1108,10 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
+      <selection pane="bottomLeft" activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -4642,7 +4641,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:O1">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$83</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -673,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -702,6 +702,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,9 +1107,9 @@
   </sheetPr>
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M58" sqref="M58"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1235,19 +1236,19 @@
         <v>17</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D66" si="0">IF((N3)&gt;=50,10,"")</f>
+        <f>IF((N3)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E66" si="1">IF((N3)&gt;=50,20,"")</f>
+        <f>IF((N3)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="2">IF((N3)&gt;=50,20,"")</f>
+        <f>IF((N3)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G66" si="3">IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
+        <f>IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
         <v>21</v>
       </c>
       <c r="H3">
@@ -1263,7 +1264,7 @@
         <v>40</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="4">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
+        <f>IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
         <v>71</v>
       </c>
     </row>
@@ -1278,19 +1279,19 @@
         <v>19</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N4)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N4)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N4)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N4)&gt;=51,IF((N4-50)&gt;50,50,IF((N4-50)&lt;0,0,(N4-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H4">
@@ -1309,7 +1310,7 @@
         <v>30</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
+        <f>IF((H4+J4+L4+M4+O4)&lt;70,IF((H4+J4+L4+M4+O4)&gt;64,70,(H4+J4+L4+M4+O4)),(H4+J4+L4+M4+O4))</f>
         <v>107</v>
       </c>
     </row>
@@ -1324,26 +1325,27 @@
         <v>21</v>
       </c>
       <c r="D5" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N5)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N5)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N5)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G5" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f>IF((N5)&gt;=51,IF((N5-50)&gt;50,50,IF((N5-50)&lt;0,0,(N5-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="I5" s="12"/>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f>IF((H5+J5+L5+M5+O5)&lt;70,IF((H5+J5+L5+M5+O5)&gt;64,70,(H5+J5+L5+M5+O5)),(H5+J5+L5+M5+O5))</f>
         <v>0</v>
       </c>
     </row>
@@ -1358,26 +1360,26 @@
         <v>23</v>
       </c>
       <c r="D6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N6)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N6)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N6)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G6" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N6)&gt;=51,IF((N6-50)&gt;50,50,IF((N6-50)&lt;0,0,(N6-50))), "" )</f>
         <v/>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f>IF((H6+J6+L6+M6+O6)&lt;70,IF((H6+J6+L6+M6+O6)&gt;64,70,(H6+J6+L6+M6+O6)),(H6+J6+L6+M6+O6))</f>
         <v>0</v>
       </c>
     </row>
@@ -1392,26 +1394,26 @@
         <v>25</v>
       </c>
       <c r="D7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N7)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N7)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N7)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G7" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N7)&gt;=51,IF((N7-50)&gt;50,50,IF((N7-50)&lt;0,0,(N7-50))), "" )</f>
         <v/>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f>IF((H7+J7+L7+M7+O7)&lt;70,IF((H7+J7+L7+M7+O7)&gt;64,70,(H7+J7+L7+M7+O7)),(H7+J7+L7+M7+O7))</f>
         <v>0</v>
       </c>
     </row>
@@ -1426,19 +1428,19 @@
         <v>27</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N8)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N8)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N8)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N8)&gt;=51,IF((N8-50)&gt;50,50,IF((N8-50)&lt;0,0,(N8-50))), "" )</f>
         <v>43</v>
       </c>
       <c r="H8">
@@ -1457,7 +1459,7 @@
         <v>30</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f>IF((H8+J8+L8+M8+O8)&lt;70,IF((H8+J8+L8+M8+O8)&gt;64,70,(H8+J8+L8+M8+O8)),(H8+J8+L8+M8+O8))</f>
         <v>93</v>
       </c>
     </row>
@@ -1472,20 +1474,23 @@
         <v>29</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N9)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N9)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N9)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>IF((N9)&gt;=51,IF((N9-50)&gt;50,50,IF((N9-50)&lt;0,0,(N9-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
       </c>
       <c r="J9">
         <v>12</v>
@@ -1496,9 +1501,12 @@
       <c r="L9">
         <v>40</v>
       </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
       <c r="N9">
-        <f t="shared" si="4"/>
-        <v>52</v>
+        <f>IF((H9+J9+L9+M9+O9)&lt;70,IF((H9+J9+L9+M9+O9)&gt;64,70,(H9+J9+L9+M9+O9)),(H9+J9+L9+M9+O9))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1512,19 +1520,19 @@
         <v>31</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N10)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N10)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N10)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N10)&gt;=51,IF((N10-50)&gt;50,50,IF((N10-50)&lt;0,0,(N10-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H10">
@@ -1540,7 +1548,7 @@
         <v>35</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
+        <f>IF((H10+J10+L10+M10+O10)&lt;70,IF((H10+J10+L10+M10+O10)&gt;64,70,(H10+J10+L10+M10+O10)),(H10+J10+L10+M10+O10))</f>
         <v>70</v>
       </c>
     </row>
@@ -1555,19 +1563,19 @@
         <v>33</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N11)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N11)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N11)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N11)&gt;=51,IF((N11-50)&gt;50,50,IF((N11-50)&lt;0,0,(N11-50))), "" )</f>
         <v>43</v>
       </c>
       <c r="H11">
@@ -1586,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
+        <f>IF((H11+J11+L11+M11+O11)&lt;70,IF((H11+J11+L11+M11+O11)&gt;64,70,(H11+J11+L11+M11+O11)),(H11+J11+L11+M11+O11))</f>
         <v>93</v>
       </c>
     </row>
@@ -1601,19 +1609,19 @@
         <v>35</v>
       </c>
       <c r="D12" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N12)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N12)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N12)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G12" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N12)&gt;=51,IF((N12-50)&gt;50,50,IF((N12-50)&lt;0,0,(N12-50))), "" )</f>
         <v/>
       </c>
       <c r="J12">
@@ -1626,7 +1634,7 @@
         <v>40</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
+        <f>IF((H12+J12+L12+M12+O12)&lt;70,IF((H12+J12+L12+M12+O12)&gt;64,70,(H12+J12+L12+M12+O12)),(H12+J12+L12+M12+O12))</f>
         <v>48</v>
       </c>
     </row>
@@ -1641,26 +1649,26 @@
         <v>37</v>
       </c>
       <c r="D13" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N13)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N13)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N13)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G13" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N13)&gt;=51,IF((N13-50)&gt;50,50,IF((N13-50)&lt;0,0,(N13-50))), "" )</f>
         <v/>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
+        <f>IF((H13+J13+L13+M13+O13)&lt;70,IF((H13+J13+L13+M13+O13)&gt;64,70,(H13+J13+L13+M13+O13)),(H13+J13+L13+M13+O13))</f>
         <v>0</v>
       </c>
     </row>
@@ -1675,19 +1683,19 @@
         <v>39</v>
       </c>
       <c r="D14" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N14)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N14)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N14)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G14" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N14)&gt;=51,IF((N14-50)&gt;50,50,IF((N14-50)&lt;0,0,(N14-50))), "" )</f>
         <v/>
       </c>
       <c r="J14">
@@ -1700,7 +1708,7 @@
         <v>20</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
+        <f>IF((H14+J14+L14+M14+O14)&lt;70,IF((H14+J14+L14+M14+O14)&gt;64,70,(H14+J14+L14+M14+O14)),(H14+J14+L14+M14+O14))</f>
         <v>34</v>
       </c>
     </row>
@@ -1715,26 +1723,26 @@
         <v>41</v>
       </c>
       <c r="D15" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N15)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N15)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N15)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G15" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N15)&gt;=51,IF((N15-50)&gt;50,50,IF((N15-50)&lt;0,0,(N15-50))), "" )</f>
         <v/>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
+        <f>IF((H15+J15+L15+M15+O15)&lt;70,IF((H15+J15+L15+M15+O15)&gt;64,70,(H15+J15+L15+M15+O15)),(H15+J15+L15+M15+O15))</f>
         <v>0</v>
       </c>
     </row>
@@ -1749,19 +1757,19 @@
         <v>43</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N16)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N16)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N16)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N16)&gt;=51,IF((N16-50)&gt;50,50,IF((N16-50)&lt;0,0,(N16-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H16">
@@ -1780,7 +1788,7 @@
         <v>30</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
+        <f>IF((H16+J16+L16+M16+O16)&lt;70,IF((H16+J16+L16+M16+O16)&gt;64,70,(H16+J16+L16+M16+O16)),(H16+J16+L16+M16+O16))</f>
         <v>106</v>
       </c>
     </row>
@@ -1795,19 +1803,19 @@
         <v>45</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N17)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N17)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N17)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N17)&gt;=51,IF((N17-50)&gt;50,50,IF((N17-50)&lt;0,0,(N17-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="J17">
@@ -1823,7 +1831,7 @@
         <v>25</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
+        <f>IF((H17+J17+L17+M17+O17)&lt;70,IF((H17+J17+L17+M17+O17)&gt;64,70,(H17+J17+L17+M17+O17)),(H17+J17+L17+M17+O17))</f>
         <v>74</v>
       </c>
     </row>
@@ -1838,20 +1846,23 @@
         <v>47</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N18)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N18)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N18)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>IF((N18)&gt;=51,IF((N18-50)&gt;50,50,IF((N18-50)&lt;0,0,(N18-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
       </c>
       <c r="J18">
         <v>12</v>
@@ -1862,9 +1873,12 @@
       <c r="L18">
         <v>40</v>
       </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
       <c r="N18">
-        <f t="shared" si="4"/>
-        <v>52</v>
+        <f>IF((H18+J18+L18+M18+O18)&lt;70,IF((H18+J18+L18+M18+O18)&gt;64,70,(H18+J18+L18+M18+O18)),(H18+J18+L18+M18+O18))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1878,26 +1892,26 @@
         <v>49</v>
       </c>
       <c r="D19" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N19)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N19)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N19)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G19" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N19)&gt;=51,IF((N19-50)&gt;50,50,IF((N19-50)&lt;0,0,(N19-50))), "" )</f>
         <v/>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
+        <f>IF((H19+J19+L19+M19+O19)&lt;70,IF((H19+J19+L19+M19+O19)&gt;64,70,(H19+J19+L19+M19+O19)),(H19+J19+L19+M19+O19))</f>
         <v>0</v>
       </c>
     </row>
@@ -1912,20 +1926,20 @@
         <v>51</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N20)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N20)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N20)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>IF((N20)&gt;=51,IF((N20-50)&gt;50,50,IF((N20-50)&lt;0,0,(N20-50))), "" )</f>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>17</v>
@@ -1939,9 +1953,12 @@
       <c r="L20">
         <v>40</v>
       </c>
+      <c r="M20">
+        <v>25</v>
+      </c>
       <c r="N20">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <f>IF((H20+J20+L20+M20+O20)&lt;70,IF((H20+J20+L20+M20+O20)&gt;64,70,(H20+J20+L20+M20+O20)),(H20+J20+L20+M20+O20))</f>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1955,19 +1972,19 @@
         <v>53</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N21)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N21)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N21)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N21)&gt;=51,IF((N21-50)&gt;50,50,IF((N21-50)&lt;0,0,(N21-50))), "" )</f>
         <v>3</v>
       </c>
       <c r="J21">
@@ -1980,7 +1997,7 @@
         <v>35</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
+        <f>IF((H21+J21+L21+M21+O21)&lt;70,IF((H21+J21+L21+M21+O21)&gt;64,70,(H21+J21+L21+M21+O21)),(H21+J21+L21+M21+O21))</f>
         <v>53</v>
       </c>
     </row>
@@ -1995,19 +2012,19 @@
         <v>55</v>
       </c>
       <c r="D22" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N22)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N22)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N22)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G22" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N22)&gt;=51,IF((N22-50)&gt;50,50,IF((N22-50)&lt;0,0,(N22-50))), "" )</f>
         <v/>
       </c>
       <c r="H22">
@@ -2017,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f>IF((H22+J22+L22+M22+O22)&lt;70,IF((H22+J22+L22+M22+O22)&gt;64,70,(H22+J22+L22+M22+O22)),(H22+J22+L22+M22+O22))</f>
         <v>18</v>
       </c>
     </row>
@@ -2032,26 +2049,26 @@
         <v>57</v>
       </c>
       <c r="D23" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N23)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N23)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N23)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G23" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N23)&gt;=51,IF((N23-50)&gt;50,50,IF((N23-50)&lt;0,0,(N23-50))), "" )</f>
         <v/>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
+        <f>IF((H23+J23+L23+M23+O23)&lt;70,IF((H23+J23+L23+M23+O23)&gt;64,70,(H23+J23+L23+M23+O23)),(H23+J23+L23+M23+O23))</f>
         <v>0</v>
       </c>
     </row>
@@ -2066,19 +2083,19 @@
         <v>59</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N24)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N24)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N24)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N24)&gt;=51,IF((N24-50)&gt;50,50,IF((N24-50)&lt;0,0,(N24-50))), "" )</f>
         <v>21</v>
       </c>
       <c r="H24">
@@ -2094,7 +2111,7 @@
         <v>40</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
+        <f>IF((H24+J24+L24+M24+O24)&lt;70,IF((H24+J24+L24+M24+O24)&gt;64,70,(H24+J24+L24+M24+O24)),(H24+J24+L24+M24+O24))</f>
         <v>71</v>
       </c>
     </row>
@@ -2109,19 +2126,19 @@
         <v>61</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N25)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N25)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N25)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N25)&gt;=51,IF((N25-50)&gt;50,50,IF((N25-50)&lt;0,0,(N25-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H25">
@@ -2140,7 +2157,7 @@
         <v>30</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f>IF((H25+J25+L25+M25+O25)&lt;70,IF((H25+J25+L25+M25+O25)&gt;64,70,(H25+J25+L25+M25+O25)),(H25+J25+L25+M25+O25))</f>
         <v>104</v>
       </c>
     </row>
@@ -2155,26 +2172,26 @@
         <v>63</v>
       </c>
       <c r="D26" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N26)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N26)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N26)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G26" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N26)&gt;=51,IF((N26-50)&gt;50,50,IF((N26-50)&lt;0,0,(N26-50))), "" )</f>
         <v/>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f>IF((H26+J26+L26+M26+O26)&lt;70,IF((H26+J26+L26+M26+O26)&gt;64,70,(H26+J26+L26+M26+O26)),(H26+J26+L26+M26+O26))</f>
         <v>0</v>
       </c>
     </row>
@@ -2189,19 +2206,19 @@
         <v>65</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N27)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N27)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N27)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N27)&gt;=51,IF((N27-50)&gt;50,50,IF((N27-50)&lt;0,0,(N27-50))), "" )</f>
         <v>42</v>
       </c>
       <c r="H27">
@@ -2220,7 +2237,7 @@
         <v>25</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f>IF((H27+J27+L27+M27+O27)&lt;70,IF((H27+J27+L27+M27+O27)&gt;64,70,(H27+J27+L27+M27+O27)),(H27+J27+L27+M27+O27))</f>
         <v>92</v>
       </c>
     </row>
@@ -2235,19 +2252,19 @@
         <v>67</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N28)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N28)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N28)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N28)&gt;=51,IF((N28-50)&gt;50,50,IF((N28-50)&lt;0,0,(N28-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H28">
@@ -2263,7 +2280,7 @@
         <v>35</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f>IF((H28+J28+L28+M28+O28)&lt;70,IF((H28+J28+L28+M28+O28)&gt;64,70,(H28+J28+L28+M28+O28)),(H28+J28+L28+M28+O28))</f>
         <v>70</v>
       </c>
     </row>
@@ -2278,19 +2295,19 @@
         <v>69</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N29)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N29)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N29)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N29)&gt;=51,IF((N29-50)&gt;50,50,IF((N29-50)&lt;0,0,(N29-50))), "" )</f>
         <v>45</v>
       </c>
       <c r="H29">
@@ -2309,7 +2326,7 @@
         <v>30</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f>IF((H29+J29+L29+M29+O29)&lt;70,IF((H29+J29+L29+M29+O29)&gt;64,70,(H29+J29+L29+M29+O29)),(H29+J29+L29+M29+O29))</f>
         <v>95</v>
       </c>
     </row>
@@ -2324,19 +2341,19 @@
         <v>71</v>
       </c>
       <c r="D30" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N30)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N30)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N30)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G30" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N30)&gt;=51,IF((N30-50)&gt;50,50,IF((N30-50)&lt;0,0,(N30-50))), "" )</f>
         <v/>
       </c>
       <c r="J30">
@@ -2349,7 +2366,7 @@
         <v>25</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f>IF((H30+J30+L30+M30+O30)&lt;70,IF((H30+J30+L30+M30+O30)&gt;64,70,(H30+J30+L30+M30+O30)),(H30+J30+L30+M30+O30))</f>
         <v>33</v>
       </c>
     </row>
@@ -2364,19 +2381,19 @@
         <v>73</v>
       </c>
       <c r="D31" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N31)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N31)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N31)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G31" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N31)&gt;=51,IF((N31-50)&gt;50,50,IF((N31-50)&lt;0,0,(N31-50))), "" )</f>
         <v/>
       </c>
       <c r="J31">
@@ -2389,7 +2406,7 @@
         <v>20</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
+        <f>IF((H31+J31+L31+M31+O31)&lt;70,IF((H31+J31+L31+M31+O31)&gt;64,70,(H31+J31+L31+M31+O31)),(H31+J31+L31+M31+O31))</f>
         <v>32</v>
       </c>
     </row>
@@ -2404,19 +2421,19 @@
         <v>75</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N32)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N32)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N32)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N32)&gt;=51,IF((N32-50)&gt;50,50,IF((N32-50)&lt;0,0,(N32-50))), "" )</f>
         <v>21</v>
       </c>
       <c r="H32">
@@ -2435,7 +2452,7 @@
         <v>20</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
+        <f>IF((H32+J32+L32+M32+O32)&lt;70,IF((H32+J32+L32+M32+O32)&gt;64,70,(H32+J32+L32+M32+O32)),(H32+J32+L32+M32+O32))</f>
         <v>71</v>
       </c>
     </row>
@@ -2450,19 +2467,19 @@
         <v>77</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N33)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N33)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N33)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N33)&gt;=51,IF((N33-50)&gt;50,50,IF((N33-50)&lt;0,0,(N33-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="J33">
@@ -2478,7 +2495,7 @@
         <v>20</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
+        <f>IF((H33+J33+L33+M33+O33)&lt;70,IF((H33+J33+L33+M33+O33)&gt;64,70,(H33+J33+L33+M33+O33)),(H33+J33+L33+M33+O33))</f>
         <v>70</v>
       </c>
     </row>
@@ -2493,19 +2510,19 @@
         <v>79</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N34)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N34)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N34)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N34)&gt;=51,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H34">
@@ -2524,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="N34">
-        <f t="shared" si="4"/>
+        <f>IF((H34+J34+L34+M34+O34)&lt;70,IF((H34+J34+L34+M34+O34)&gt;64,70,(H34+J34+L34+M34+O34)),(H34+J34+L34+M34+O34))</f>
         <v>70</v>
       </c>
     </row>
@@ -2539,26 +2556,26 @@
         <v>81</v>
       </c>
       <c r="D35" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N35)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N35)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N35)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G35" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N35)&gt;=51,IF((N35-50)&gt;50,50,IF((N35-50)&lt;0,0,(N35-50))), "" )</f>
         <v/>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="N35">
-        <f t="shared" si="4"/>
+        <f>IF((H35+J35+L35+M35+O35)&lt;70,IF((H35+J35+L35+M35+O35)&gt;64,70,(H35+J35+L35+M35+O35)),(H35+J35+L35+M35+O35))</f>
         <v>0</v>
       </c>
     </row>
@@ -2573,19 +2590,19 @@
         <v>83</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N36)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N36)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N36)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N36)&gt;=51,IF((N36-50)&gt;50,50,IF((N36-50)&lt;0,0,(N36-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H36">
@@ -2604,7 +2621,7 @@
         <v>30</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
+        <f>IF((H36+J36+L36+M36+O36)&lt;70,IF((H36+J36+L36+M36+O36)&gt;64,70,(H36+J36+L36+M36+O36)),(H36+J36+L36+M36+O36))</f>
         <v>102</v>
       </c>
     </row>
@@ -2619,19 +2636,19 @@
         <v>85</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N37)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N37)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N37)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N37)&gt;=51,IF((N37-50)&gt;50,50,IF((N37-50)&lt;0,0,(N37-50))), "" )</f>
         <v>32</v>
       </c>
       <c r="H37">
@@ -2650,7 +2667,7 @@
         <v>30</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
+        <f>IF((H37+J37+L37+M37+O37)&lt;70,IF((H37+J37+L37+M37+O37)&gt;64,70,(H37+J37+L37+M37+O37)),(H37+J37+L37+M37+O37))</f>
         <v>82</v>
       </c>
     </row>
@@ -2665,19 +2682,19 @@
         <v>87</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N38)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N38)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N38)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N38)&gt;=51,IF((N38-50)&gt;50,50,IF((N38-50)&lt;0,0,(N38-50))), "" )</f>
         <v>30</v>
       </c>
       <c r="J38">
@@ -2693,7 +2710,7 @@
         <v>30</v>
       </c>
       <c r="N38">
-        <f t="shared" si="4"/>
+        <f>IF((H38+J38+L38+M38+O38)&lt;70,IF((H38+J38+L38+M38+O38)&gt;64,70,(H38+J38+L38+M38+O38)),(H38+J38+L38+M38+O38))</f>
         <v>80</v>
       </c>
     </row>
@@ -2708,19 +2725,19 @@
         <v>89</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N39)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N39)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N39)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N39)&gt;=51,IF((N39-50)&gt;50,50,IF((N39-50)&lt;0,0,(N39-50))), "" )</f>
         <v>27</v>
       </c>
       <c r="H39">
@@ -2736,7 +2753,7 @@
         <v>40</v>
       </c>
       <c r="N39">
-        <f t="shared" si="4"/>
+        <f>IF((H39+J39+L39+M39+O39)&lt;70,IF((H39+J39+L39+M39+O39)&gt;64,70,(H39+J39+L39+M39+O39)),(H39+J39+L39+M39+O39))</f>
         <v>77</v>
       </c>
     </row>
@@ -2751,19 +2768,19 @@
         <v>91</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N40)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N40)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N40)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N40)&gt;=51,IF((N40-50)&gt;50,50,IF((N40-50)&lt;0,0,(N40-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="J40">
@@ -2779,7 +2796,7 @@
         <v>30</v>
       </c>
       <c r="N40">
-        <f t="shared" si="4"/>
+        <f>IF((H40+J40+L40+M40+O40)&lt;70,IF((H40+J40+L40+M40+O40)&gt;64,70,(H40+J40+L40+M40+O40)),(H40+J40+L40+M40+O40))</f>
         <v>70</v>
       </c>
     </row>
@@ -2794,19 +2811,19 @@
         <v>93</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N41)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N41)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N41)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N41)&gt;=51,IF((N41-50)&gt;50,50,IF((N41-50)&lt;0,0,(N41-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H41">
@@ -2822,7 +2839,7 @@
         <v>40</v>
       </c>
       <c r="N41">
-        <f t="shared" si="4"/>
+        <f>IF((H41+J41+L41+M41+O41)&lt;70,IF((H41+J41+L41+M41+O41)&gt;64,70,(H41+J41+L41+M41+O41)),(H41+J41+L41+M41+O41))</f>
         <v>70</v>
       </c>
     </row>
@@ -2837,19 +2854,19 @@
         <v>95</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N42)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N42)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N42)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N42)&gt;=51,IF((N42-50)&gt;50,50,IF((N42-50)&lt;0,0,(N42-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H42">
@@ -2865,7 +2882,7 @@
         <v>40</v>
       </c>
       <c r="N42">
-        <f t="shared" si="4"/>
+        <f>IF((H42+J42+L42+M42+O42)&lt;70,IF((H42+J42+L42+M42+O42)&gt;64,70,(H42+J42+L42+M42+O42)),(H42+J42+L42+M42+O42))</f>
         <v>70</v>
       </c>
     </row>
@@ -2880,19 +2897,19 @@
         <v>97</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N43)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N43)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N43)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N43)&gt;=51,IF((N43-50)&gt;50,50,IF((N43-50)&lt;0,0,(N43-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="H43">
@@ -2908,7 +2925,7 @@
         <v>40</v>
       </c>
       <c r="N43">
-        <f t="shared" si="4"/>
+        <f>IF((H43+J43+L43+M43+O43)&lt;70,IF((H43+J43+L43+M43+O43)&gt;64,70,(H43+J43+L43+M43+O43)),(H43+J43+L43+M43+O43))</f>
         <v>74</v>
       </c>
     </row>
@@ -2923,19 +2940,19 @@
         <v>99</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N44)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N44)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N44)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N44)&gt;=51,IF((N44-50)&gt;50,50,IF((N44-50)&lt;0,0,(N44-50))), "" )</f>
         <v>35</v>
       </c>
       <c r="H44">
@@ -2954,7 +2971,7 @@
         <v>15</v>
       </c>
       <c r="N44">
-        <f t="shared" si="4"/>
+        <f>IF((H44+J44+L44+M44+O44)&lt;70,IF((H44+J44+L44+M44+O44)&gt;64,70,(H44+J44+L44+M44+O44)),(H44+J44+L44+M44+O44))</f>
         <v>85</v>
       </c>
     </row>
@@ -2969,19 +2986,19 @@
         <v>101</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N45)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N45)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N45)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N45)&gt;=51,IF((N45-50)&gt;50,50,IF((N45-50)&lt;0,0,(N45-50))), "" )</f>
         <v>27</v>
       </c>
       <c r="H45">
@@ -2997,7 +3014,7 @@
         <v>40</v>
       </c>
       <c r="N45">
-        <f t="shared" si="4"/>
+        <f>IF((H45+J45+L45+M45+O45)&lt;70,IF((H45+J45+L45+M45+O45)&gt;64,70,(H45+J45+L45+M45+O45)),(H45+J45+L45+M45+O45))</f>
         <v>77</v>
       </c>
     </row>
@@ -3012,20 +3029,23 @@
         <v>103</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N46)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N46)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N46)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f>IF((N46)&gt;=51,IF((N46-50)&gt;50,50,IF((N46-50)&lt;0,0,(N46-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
       </c>
       <c r="J46">
         <v>20</v>
@@ -3037,8 +3057,8 @@
         <v>40</v>
       </c>
       <c r="N46">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <f>IF((H46+J46+L46+M46+O46)&lt;70,IF((H46+J46+L46+M46+O46)&gt;64,70,(H46+J46+L46+M46+O46)),(H46+J46+L46+M46+O46))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3052,19 +3072,19 @@
         <v>105</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N47)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N47)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N47)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N47)&gt;=51,IF((N47-50)&gt;50,50,IF((N47-50)&lt;0,0,(N47-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H47">
@@ -3080,7 +3100,7 @@
         <v>35</v>
       </c>
       <c r="N47">
-        <f t="shared" si="4"/>
+        <f>IF((H47+J47+L47+M47+O47)&lt;70,IF((H47+J47+L47+M47+O47)&gt;64,70,(H47+J47+L47+M47+O47)),(H47+J47+L47+M47+O47))</f>
         <v>70</v>
       </c>
     </row>
@@ -3095,19 +3115,19 @@
         <v>107</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N48)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N48)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N48)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N48)&gt;=51,IF((N48-50)&gt;50,50,IF((N48-50)&lt;0,0,(N48-50))), "" )</f>
         <v>47</v>
       </c>
       <c r="H48">
@@ -3126,7 +3146,7 @@
         <v>30</v>
       </c>
       <c r="N48">
-        <f t="shared" si="4"/>
+        <f>IF((H48+J48+L48+M48+O48)&lt;70,IF((H48+J48+L48+M48+O48)&gt;64,70,(H48+J48+L48+M48+O48)),(H48+J48+L48+M48+O48))</f>
         <v>97</v>
       </c>
     </row>
@@ -3141,19 +3161,19 @@
         <v>109</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N49)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N49)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N49)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N49)&gt;=51,IF((N49-50)&gt;50,50,IF((N49-50)&lt;0,0,(N49-50))), "" )</f>
         <v>40</v>
       </c>
       <c r="H49">
@@ -3172,7 +3192,7 @@
         <v>30</v>
       </c>
       <c r="N49">
-        <f t="shared" si="4"/>
+        <f>IF((H49+J49+L49+M49+O49)&lt;70,IF((H49+J49+L49+M49+O49)&gt;64,70,(H49+J49+L49+M49+O49)),(H49+J49+L49+M49+O49))</f>
         <v>90</v>
       </c>
     </row>
@@ -3187,19 +3207,19 @@
         <v>111</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N50)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N50)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N50)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N50)&gt;=51,IF((N50-50)&gt;50,50,IF((N50-50)&lt;0,0,(N50-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="H50">
@@ -3218,7 +3238,7 @@
         <v>20</v>
       </c>
       <c r="N50">
-        <f t="shared" si="4"/>
+        <f>IF((H50+J50+L50+M50+O50)&lt;70,IF((H50+J50+L50+M50+O50)&gt;64,70,(H50+J50+L50+M50+O50)),(H50+J50+L50+M50+O50))</f>
         <v>74</v>
       </c>
     </row>
@@ -3233,19 +3253,19 @@
         <v>113</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N51)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N51)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N51)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N51)&gt;=51,IF((N51-50)&gt;50,50,IF((N51-50)&lt;0,0,(N51-50))), "" )</f>
         <v>40</v>
       </c>
       <c r="H51">
@@ -3264,7 +3284,7 @@
         <v>30</v>
       </c>
       <c r="N51">
-        <f t="shared" si="4"/>
+        <f>IF((H51+J51+L51+M51+O51)&lt;70,IF((H51+J51+L51+M51+O51)&gt;64,70,(H51+J51+L51+M51+O51)),(H51+J51+L51+M51+O51))</f>
         <v>90</v>
       </c>
     </row>
@@ -3279,19 +3299,19 @@
         <v>115</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N52)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N52)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N52)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N52)&gt;=51,IF((N52-50)&gt;50,50,IF((N52-50)&lt;0,0,(N52-50))), "" )</f>
         <v>49</v>
       </c>
       <c r="H52">
@@ -3310,7 +3330,7 @@
         <v>30</v>
       </c>
       <c r="N52">
-        <f t="shared" si="4"/>
+        <f>IF((H52+J52+L52+M52+O52)&lt;70,IF((H52+J52+L52+M52+O52)&gt;64,70,(H52+J52+L52+M52+O52)),(H52+J52+L52+M52+O52))</f>
         <v>99</v>
       </c>
     </row>
@@ -3325,20 +3345,23 @@
         <v>117</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N53)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N53)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N53)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>IF((N53)&gt;=51,IF((N53-50)&gt;50,50,IF((N53-50)&lt;0,0,(N53-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H53">
+        <v>10</v>
       </c>
       <c r="J53">
         <v>11</v>
@@ -3349,9 +3372,12 @@
       <c r="L53">
         <v>40</v>
       </c>
+      <c r="M53">
+        <v>4</v>
+      </c>
       <c r="N53">
-        <f t="shared" si="4"/>
-        <v>51</v>
+        <f>IF((H53+J53+L53+M53+O53)&lt;70,IF((H53+J53+L53+M53+O53)&gt;64,70,(H53+J53+L53+M53+O53)),(H53+J53+L53+M53+O53))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3365,19 +3391,19 @@
         <v>119</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N54)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N54)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N54)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N54)&gt;=51,IF((N54-50)&gt;50,50,IF((N54-50)&lt;0,0,(N54-50))), "" )</f>
         <v>22</v>
       </c>
       <c r="H54">
@@ -3393,7 +3419,7 @@
         <v>40</v>
       </c>
       <c r="N54">
-        <f t="shared" si="4"/>
+        <f>IF((H54+J54+L54+M54+O54)&lt;70,IF((H54+J54+L54+M54+O54)&gt;64,70,(H54+J54+L54+M54+O54)),(H54+J54+L54+M54+O54))</f>
         <v>72</v>
       </c>
     </row>
@@ -3408,19 +3434,19 @@
         <v>121</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N55)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N55)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N55)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N55)&gt;=51,IF((N55-50)&gt;50,50,IF((N55-50)&lt;0,0,(N55-50))), "" )</f>
         <v>43</v>
       </c>
       <c r="H55">
@@ -3439,7 +3465,7 @@
         <v>30</v>
       </c>
       <c r="N55">
-        <f t="shared" si="4"/>
+        <f>IF((H55+J55+L55+M55+O55)&lt;70,IF((H55+J55+L55+M55+O55)&gt;64,70,(H55+J55+L55+M55+O55)),(H55+J55+L55+M55+O55))</f>
         <v>93</v>
       </c>
     </row>
@@ -3454,19 +3480,19 @@
         <v>123</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N56)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N56)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N56)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N56)&gt;=51,IF((N56-50)&gt;50,50,IF((N56-50)&lt;0,0,(N56-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H56">
@@ -3482,7 +3508,7 @@
         <v>35</v>
       </c>
       <c r="N56">
-        <f t="shared" si="4"/>
+        <f>IF((H56+J56+L56+M56+O56)&lt;70,IF((H56+J56+L56+M56+O56)&gt;64,70,(H56+J56+L56+M56+O56)),(H56+J56+L56+M56+O56))</f>
         <v>70</v>
       </c>
     </row>
@@ -3497,19 +3523,19 @@
         <v>125</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N57)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N57)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N57)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N57)&gt;=51,IF((N57-50)&gt;50,50,IF((N57-50)&lt;0,0,(N57-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="J57">
@@ -3525,7 +3551,7 @@
         <v>20</v>
       </c>
       <c r="N57">
-        <f t="shared" si="4"/>
+        <f>IF((H57+J57+L57+M57+O57)&lt;70,IF((H57+J57+L57+M57+O57)&gt;64,70,(H57+J57+L57+M57+O57)),(H57+J57+L57+M57+O57))</f>
         <v>70</v>
       </c>
     </row>
@@ -3540,19 +3566,19 @@
         <v>127</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N58)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N58)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N58)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N58)&gt;=51,IF((N58-50)&gt;50,50,IF((N58-50)&lt;0,0,(N58-50))), "" )</f>
         <v>39</v>
       </c>
       <c r="H58">
@@ -3571,7 +3597,7 @@
         <v>20</v>
       </c>
       <c r="N58">
-        <f t="shared" si="4"/>
+        <f>IF((H58+J58+L58+M58+O58)&lt;70,IF((H58+J58+L58+M58+O58)&gt;64,70,(H58+J58+L58+M58+O58)),(H58+J58+L58+M58+O58))</f>
         <v>89</v>
       </c>
     </row>
@@ -3586,19 +3612,19 @@
         <v>129</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N59)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N59)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N59)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N59)&gt;=51,IF((N59-50)&gt;50,50,IF((N59-50)&lt;0,0,(N59-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H59">
@@ -3617,7 +3643,7 @@
         <v>30</v>
       </c>
       <c r="N59">
-        <f t="shared" si="4"/>
+        <f>IF((H59+J59+L59+M59+O59)&lt;70,IF((H59+J59+L59+M59+O59)&gt;64,70,(H59+J59+L59+M59+O59)),(H59+J59+L59+M59+O59))</f>
         <v>102</v>
       </c>
     </row>
@@ -3632,19 +3658,19 @@
         <v>131</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N60)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N60)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N60)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N60)&gt;=51,IF((N60-50)&gt;50,50,IF((N60-50)&lt;0,0,(N60-50))), "" )</f>
         <v>9</v>
       </c>
       <c r="H60">
@@ -3660,7 +3686,7 @@
         <v>35</v>
       </c>
       <c r="N60">
-        <f t="shared" si="4"/>
+        <f>IF((H60+J60+L60+M60+O60)&lt;70,IF((H60+J60+L60+M60+O60)&gt;64,70,(H60+J60+L60+M60+O60)),(H60+J60+L60+M60+O60))</f>
         <v>59</v>
       </c>
     </row>
@@ -3675,19 +3701,19 @@
         <v>133</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N61)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N61)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N61)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N61)&gt;=51,IF((N61-50)&gt;50,50,IF((N61-50)&lt;0,0,(N61-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H61">
@@ -3703,7 +3729,7 @@
         <v>40</v>
       </c>
       <c r="N61">
-        <f t="shared" si="4"/>
+        <f>IF((H61+J61+L61+M61+O61)&lt;70,IF((H61+J61+L61+M61+O61)&gt;64,70,(H61+J61+L61+M61+O61)),(H61+J61+L61+M61+O61))</f>
         <v>70</v>
       </c>
     </row>
@@ -3718,19 +3744,19 @@
         <v>135</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N62)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N62)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N62)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N62)&gt;=51,IF((N62-50)&gt;50,50,IF((N62-50)&lt;0,0,(N62-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H62">
@@ -3746,7 +3772,7 @@
         <v>40</v>
       </c>
       <c r="N62">
-        <f t="shared" si="4"/>
+        <f>IF((H62+J62+L62+M62+O62)&lt;70,IF((H62+J62+L62+M62+O62)&gt;64,70,(H62+J62+L62+M62+O62)),(H62+J62+L62+M62+O62))</f>
         <v>70</v>
       </c>
     </row>
@@ -3761,19 +3787,19 @@
         <v>137</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N63)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N63)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N63)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N63)&gt;=51,IF((N63-50)&gt;50,50,IF((N63-50)&lt;0,0,(N63-50))), "" )</f>
         <v>43</v>
       </c>
       <c r="H63">
@@ -3792,7 +3818,7 @@
         <v>30</v>
       </c>
       <c r="N63">
-        <f t="shared" si="4"/>
+        <f>IF((H63+J63+L63+M63+O63)&lt;70,IF((H63+J63+L63+M63+O63)&gt;64,70,(H63+J63+L63+M63+O63)),(H63+J63+L63+M63+O63))</f>
         <v>93</v>
       </c>
     </row>
@@ -3807,19 +3833,19 @@
         <v>139</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N64)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N64)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N64)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N64)&gt;=51,IF((N64-50)&gt;50,50,IF((N64-50)&lt;0,0,(N64-50))), "" )</f>
         <v>22</v>
       </c>
       <c r="H64">
@@ -3838,7 +3864,7 @@
         <v>30</v>
       </c>
       <c r="N64">
-        <f t="shared" si="4"/>
+        <f>IF((H64+J64+L64+M64+O64)&lt;70,IF((H64+J64+L64+M64+O64)&gt;64,70,(H64+J64+L64+M64+O64)),(H64+J64+L64+M64+O64))</f>
         <v>72</v>
       </c>
     </row>
@@ -3853,26 +3879,26 @@
         <v>141</v>
       </c>
       <c r="D65" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N65)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E65" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N65)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F65" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N65)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G65" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N65)&gt;=51,IF((N65-50)&gt;50,50,IF((N65-50)&lt;0,0,(N65-50))), "" )</f>
         <v/>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="4"/>
+        <f>IF((H65+J65+L65+M65+O65)&lt;70,IF((H65+J65+L65+M65+O65)&gt;64,70,(H65+J65+L65+M65+O65)),(H65+J65+L65+M65+O65))</f>
         <v>0</v>
       </c>
     </row>
@@ -3887,26 +3913,26 @@
         <v>143</v>
       </c>
       <c r="D66" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N66)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E66" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N66)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F66" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N66)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G66" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N66)&gt;=51,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
         <v/>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="N66">
-        <f t="shared" si="4"/>
+        <f>IF((H66+J66+L66+M66+O66)&lt;70,IF((H66+J66+L66+M66+O66)&gt;64,70,(H66+J66+L66+M66+O66)),(H66+J66+L66+M66+O66))</f>
         <v>0</v>
       </c>
     </row>
@@ -3921,26 +3947,26 @@
         <v>145</v>
       </c>
       <c r="D67" s="6" t="str">
-        <f t="shared" ref="D67:D83" si="5">IF((N67)&gt;=50,10,"")</f>
+        <f>IF((N67)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" ref="E67:E83" si="6">IF((N67)&gt;=50,20,"")</f>
+        <f>IF((N67)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F67" s="2" t="str">
-        <f t="shared" ref="F67:F83" si="7">IF((N67)&gt;=50,20,"")</f>
+        <f>IF((N67)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G67" s="6" t="str">
-        <f t="shared" ref="G67:G83" si="8">IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <f>IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
         <v/>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N83" si="9">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <f>IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
         <v>0</v>
       </c>
     </row>
@@ -3955,26 +3981,26 @@
         <v>147</v>
       </c>
       <c r="D68" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N68)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E68" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N68)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F68" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N68)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G68" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N68)&gt;=51,IF((N68-50)&gt;50,50,IF((N68-50)&lt;0,0,(N68-50))), "" )</f>
         <v/>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="9"/>
+        <f>IF((H68+J68+L68+M68+O68)&lt;70,IF((H68+J68+L68+M68+O68)&gt;64,70,(H68+J68+L68+M68+O68)),(H68+J68+L68+M68+O68))</f>
         <v>0</v>
       </c>
     </row>
@@ -3989,19 +4015,19 @@
         <v>149</v>
       </c>
       <c r="D69" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N69)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E69" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N69)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F69" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N69)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G69" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N69)&gt;=51,IF((N69-50)&gt;50,50,IF((N69-50)&lt;0,0,(N69-50))), "" )</f>
         <v/>
       </c>
       <c r="H69">
@@ -4017,7 +4043,7 @@
         <v>20</v>
       </c>
       <c r="N69">
-        <f t="shared" si="9"/>
+        <f>IF((H69+J69+L69+M69+O69)&lt;70,IF((H69+J69+L69+M69+O69)&gt;64,70,(H69+J69+L69+M69+O69)),(H69+J69+L69+M69+O69))</f>
         <v>48</v>
       </c>
     </row>
@@ -4032,19 +4058,19 @@
         <v>151</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N70)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N70)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N70)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G70" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N70)&gt;=51,IF((N70-50)&gt;50,50,IF((N70-50)&lt;0,0,(N70-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H70">
@@ -4060,7 +4086,7 @@
         <v>40</v>
       </c>
       <c r="N70">
-        <f t="shared" si="9"/>
+        <f>IF((H70+J70+L70+M70+O70)&lt;70,IF((H70+J70+L70+M70+O70)&gt;64,70,(H70+J70+L70+M70+O70)),(H70+J70+L70+M70+O70))</f>
         <v>70</v>
       </c>
     </row>
@@ -4075,19 +4101,19 @@
         <v>153</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N71)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N71)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N71)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G71" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N71)&gt;=51,IF((N71-50)&gt;50,50,IF((N71-50)&lt;0,0,(N71-50))), "" )</f>
         <v>35</v>
       </c>
       <c r="J71">
@@ -4103,7 +4129,7 @@
         <v>30</v>
       </c>
       <c r="N71">
-        <f t="shared" si="9"/>
+        <f>IF((H71+J71+L71+M71+O71)&lt;70,IF((H71+J71+L71+M71+O71)&gt;64,70,(H71+J71+L71+M71+O71)),(H71+J71+L71+M71+O71))</f>
         <v>85</v>
       </c>
     </row>
@@ -4118,19 +4144,19 @@
         <v>155</v>
       </c>
       <c r="D72" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N72)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E72" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N72)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F72" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N72)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G72" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N72)&gt;=51,IF((N72-50)&gt;50,50,IF((N72-50)&lt;0,0,(N72-50))), "" )</f>
         <v/>
       </c>
       <c r="J72">
@@ -4143,7 +4169,7 @@
         <v>20</v>
       </c>
       <c r="N72">
-        <f t="shared" si="9"/>
+        <f>IF((H72+J72+L72+M72+O72)&lt;70,IF((H72+J72+L72+M72+O72)&gt;64,70,(H72+J72+L72+M72+O72)),(H72+J72+L72+M72+O72))</f>
         <v>24</v>
       </c>
     </row>
@@ -4158,19 +4184,19 @@
         <v>157</v>
       </c>
       <c r="D73" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N73)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N73)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N73)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G73" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N73)&gt;=51,IF((N73-50)&gt;50,50,IF((N73-50)&lt;0,0,(N73-50))), "" )</f>
         <v>44</v>
       </c>
       <c r="H73">
@@ -4189,7 +4215,7 @@
         <v>30</v>
       </c>
       <c r="N73">
-        <f t="shared" si="9"/>
+        <f>IF((H73+J73+L73+M73+O73)&lt;70,IF((H73+J73+L73+M73+O73)&gt;64,70,(H73+J73+L73+M73+O73)),(H73+J73+L73+M73+O73))</f>
         <v>94</v>
       </c>
     </row>
@@ -4204,19 +4230,19 @@
         <v>159</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N74)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N74)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N74)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G74" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N74)&gt;=51,IF((N74-50)&gt;50,50,IF((N74-50)&lt;0,0,(N74-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="H74">
@@ -4232,7 +4258,7 @@
         <v>35</v>
       </c>
       <c r="N74">
-        <f t="shared" si="9"/>
+        <f>IF((H74+J74+L74+M74+O74)&lt;70,IF((H74+J74+L74+M74+O74)&gt;64,70,(H74+J74+L74+M74+O74)),(H74+J74+L74+M74+O74))</f>
         <v>74</v>
       </c>
     </row>
@@ -4247,19 +4273,19 @@
         <v>161</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N75)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N75)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N75)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N75)&gt;=51,IF((N75-50)&gt;50,50,IF((N75-50)&lt;0,0,(N75-50))), "" )</f>
         <v>34</v>
       </c>
       <c r="H75">
@@ -4278,7 +4304,7 @@
         <v>20</v>
       </c>
       <c r="N75">
-        <f t="shared" si="9"/>
+        <f>IF((H75+J75+L75+M75+O75)&lt;70,IF((H75+J75+L75+M75+O75)&gt;64,70,(H75+J75+L75+M75+O75)),(H75+J75+L75+M75+O75))</f>
         <v>84</v>
       </c>
     </row>
@@ -4293,19 +4319,19 @@
         <v>163</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N76)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N76)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N76)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G76" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N76)&gt;=51,IF((N76-50)&gt;50,50,IF((N76-50)&lt;0,0,(N76-50))), "" )</f>
         <v>40</v>
       </c>
       <c r="J76">
@@ -4321,7 +4347,7 @@
         <v>30</v>
       </c>
       <c r="N76">
-        <f t="shared" si="9"/>
+        <f>IF((H76+J76+L76+M76+O76)&lt;70,IF((H76+J76+L76+M76+O76)&gt;64,70,(H76+J76+L76+M76+O76)),(H76+J76+L76+M76+O76))</f>
         <v>90</v>
       </c>
     </row>
@@ -4336,19 +4362,19 @@
         <v>165</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N77)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N77)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N77)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G77" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N77)&gt;=51,IF((N77-50)&gt;50,50,IF((N77-50)&lt;0,0,(N77-50))), "" )</f>
         <v>44</v>
       </c>
       <c r="H77">
@@ -4367,7 +4393,7 @@
         <v>29</v>
       </c>
       <c r="N77">
-        <f t="shared" si="9"/>
+        <f>IF((H77+J77+L77+M77+O77)&lt;70,IF((H77+J77+L77+M77+O77)&gt;64,70,(H77+J77+L77+M77+O77)),(H77+J77+L77+M77+O77))</f>
         <v>94</v>
       </c>
     </row>
@@ -4382,19 +4408,19 @@
         <v>167</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N78)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E78" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N78)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N78)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N78)&gt;=51,IF((N78-50)&gt;50,50,IF((N78-50)&lt;0,0,(N78-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H78">
@@ -4413,7 +4439,7 @@
         <v>30</v>
       </c>
       <c r="N78">
-        <f t="shared" si="9"/>
+        <f>IF((H78+J78+L78+M78+O78)&lt;70,IF((H78+J78+L78+M78+O78)&gt;64,70,(H78+J78+L78+M78+O78)),(H78+J78+L78+M78+O78))</f>
         <v>108</v>
       </c>
     </row>
@@ -4428,19 +4454,19 @@
         <v>169</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N79)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N79)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N79)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N79)&gt;=51,IF((N79-50)&gt;50,50,IF((N79-50)&lt;0,0,(N79-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="J79">
@@ -4456,7 +4482,7 @@
         <v>30</v>
       </c>
       <c r="N79">
-        <f t="shared" si="9"/>
+        <f>IF((H79+J79+L79+M79+O79)&lt;70,IF((H79+J79+L79+M79+O79)&gt;64,70,(H79+J79+L79+M79+O79)),(H79+J79+L79+M79+O79))</f>
         <v>70</v>
       </c>
     </row>
@@ -4471,19 +4497,19 @@
         <v>171</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N80)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N80)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N80)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N80)&gt;=51,IF((N80-50)&gt;50,50,IF((N80-50)&lt;0,0,(N80-50))), "" )</f>
         <v>40</v>
       </c>
       <c r="H80">
@@ -4502,7 +4528,7 @@
         <v>30</v>
       </c>
       <c r="N80">
-        <f t="shared" si="9"/>
+        <f>IF((H80+J80+L80+M80+O80)&lt;70,IF((H80+J80+L80+M80+O80)&gt;64,70,(H80+J80+L80+M80+O80)),(H80+J80+L80+M80+O80))</f>
         <v>90</v>
       </c>
     </row>
@@ -4517,19 +4543,19 @@
         <v>173</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N81)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N81)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N81)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N81)&gt;=51,IF((N81-50)&gt;50,50,IF((N81-50)&lt;0,0,(N81-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H81">
@@ -4545,7 +4571,7 @@
         <v>40</v>
       </c>
       <c r="N81">
-        <f t="shared" si="9"/>
+        <f>IF((H81+J81+L81+M81+O81)&lt;70,IF((H81+J81+L81+M81+O81)&gt;64,70,(H81+J81+L81+M81+O81)),(H81+J81+L81+M81+O81))</f>
         <v>70</v>
       </c>
     </row>
@@ -4560,20 +4586,23 @@
         <v>175</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N82)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N82)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N82)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f>IF((N82)&gt;=51,IF((N82-50)&gt;50,50,IF((N82-50)&lt;0,0,(N82-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H82">
+        <v>10</v>
       </c>
       <c r="J82">
         <v>12</v>
@@ -4584,9 +4613,12 @@
       <c r="L82">
         <v>40</v>
       </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
       <c r="N82">
-        <f t="shared" si="9"/>
-        <v>52</v>
+        <f>IF((H82+J82+L82+M82+O82)&lt;70,IF((H82+J82+L82+M82+O82)&gt;64,70,(H82+J82+L82+M82+O82)),(H82+J82+L82+M82+O82))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4600,19 +4632,19 @@
         <v>177</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N83)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N83)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N83)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N83)&gt;=51,IF((N83-50)&gt;50,50,IF((N83-50)&lt;0,0,(N83-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H83">
@@ -4631,7 +4663,7 @@
         <v>20</v>
       </c>
       <c r="N83">
-        <f t="shared" si="9"/>
+        <f>IF((H83+J83+L83+M83+O83)&lt;70,IF((H83+J83+L83+M83+O83)&gt;64,70,(H83+J83+L83+M83+O83)),(H83+J83+L83+M83+O83))</f>
         <v>70</v>
       </c>
     </row>
@@ -4646,6 +4678,9 @@
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
+    <sortState ref="A2:O83">
+      <sortCondition ref="A1"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -1108,8 +1108,8 @@
   <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1186,19 +1186,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <f>IF((N2)&gt;=50,10,"")</f>
+        <f t="shared" ref="D2:D33" si="0">IF((N2)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <f>IF((N2)&gt;=50,20,"")</f>
+        <f t="shared" ref="E2:E33" si="1">IF((N2)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F2" s="2">
-        <f>IF((N2)&gt;=50,20,"")</f>
+        <f t="shared" ref="F2:F33" si="2">IF((N2)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G2" s="6">
-        <f>IF((N2)&gt;=51,IF((N2-50)&gt;50,50,IF((N2-50)&lt;0,0,(N2-50))), "" )</f>
+        <f t="shared" ref="G2:G33" si="3">IF((N2)&gt;=51,IF((N2-50)&gt;50,50,IF((N2-50)&lt;0,0,(N2-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H2">
@@ -1218,7 +1218,7 @@
         <v>30</v>
       </c>
       <c r="N2">
-        <f>IF((H2+J2+L2+M2+O2)&lt;70,IF((H2+J2+L2+M2+O2)&gt;64,70,(H2+J2+L2+M2+O2)),(H2+J2+L2+M2+O2))</f>
+        <f t="shared" ref="N2:N33" si="4">IF((H2+J2+L2+M2+O2)&lt;70,IF((H2+J2+L2+M2+O2)&gt;64,70,(H2+J2+L2+M2+O2)),(H2+J2+L2+M2+O2))</f>
         <v>110</v>
       </c>
       <c r="O2">
@@ -1236,19 +1236,19 @@
         <v>17</v>
       </c>
       <c r="D3" s="6">
-        <f>IF((N3)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f>IF((N3)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f>IF((N3)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G3" s="6">
-        <f>IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="H3">
@@ -1264,7 +1264,7 @@
         <v>40</v>
       </c>
       <c r="N3">
-        <f>IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
     </row>
@@ -1279,19 +1279,19 @@
         <v>19</v>
       </c>
       <c r="D4" s="6">
-        <f>IF((N4)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f>IF((N4)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f>IF((N4)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G4" s="6">
-        <f>IF((N4)&gt;=51,IF((N4-50)&gt;50,50,IF((N4-50)&lt;0,0,(N4-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="H4">
@@ -1310,7 +1310,7 @@
         <v>30</v>
       </c>
       <c r="N4">
-        <f>IF((H4+J4+L4+M4+O4)&lt;70,IF((H4+J4+L4+M4+O4)&gt;64,70,(H4+J4+L4+M4+O4)),(H4+J4+L4+M4+O4))</f>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
     </row>
@@ -1325,19 +1325,19 @@
         <v>21</v>
       </c>
       <c r="D5" s="6" t="str">
-        <f>IF((N5)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E5" s="2" t="str">
-        <f>IF((N5)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F5" s="2" t="str">
-        <f>IF((N5)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G5" s="6" t="str">
-        <f>IF((N5)&gt;=51,IF((N5-50)&gt;50,50,IF((N5-50)&lt;0,0,(N5-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I5" s="12"/>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <f>IF((H5+J5+L5+M5+O5)&lt;70,IF((H5+J5+L5+M5+O5)&gt;64,70,(H5+J5+L5+M5+O5)),(H5+J5+L5+M5+O5))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1360,26 +1360,26 @@
         <v>23</v>
       </c>
       <c r="D6" s="6" t="str">
-        <f>IF((N6)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E6" s="2" t="str">
-        <f>IF((N6)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F6" s="2" t="str">
-        <f>IF((N6)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G6" s="6" t="str">
-        <f>IF((N6)&gt;=51,IF((N6-50)&gt;50,50,IF((N6-50)&lt;0,0,(N6-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="N6">
-        <f>IF((H6+J6+L6+M6+O6)&lt;70,IF((H6+J6+L6+M6+O6)&gt;64,70,(H6+J6+L6+M6+O6)),(H6+J6+L6+M6+O6))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1394,26 +1394,26 @@
         <v>25</v>
       </c>
       <c r="D7" s="6" t="str">
-        <f>IF((N7)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E7" s="2" t="str">
-        <f>IF((N7)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F7" s="2" t="str">
-        <f>IF((N7)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G7" s="6" t="str">
-        <f>IF((N7)&gt;=51,IF((N7-50)&gt;50,50,IF((N7-50)&lt;0,0,(N7-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="N7">
-        <f>IF((H7+J7+L7+M7+O7)&lt;70,IF((H7+J7+L7+M7+O7)&gt;64,70,(H7+J7+L7+M7+O7)),(H7+J7+L7+M7+O7))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1428,19 +1428,19 @@
         <v>27</v>
       </c>
       <c r="D8" s="6">
-        <f>IF((N8)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E8" s="2">
-        <f>IF((N8)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F8" s="2">
-        <f>IF((N8)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G8" s="6">
-        <f>IF((N8)&gt;=51,IF((N8-50)&gt;50,50,IF((N8-50)&lt;0,0,(N8-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="H8">
@@ -1459,7 +1459,7 @@
         <v>30</v>
       </c>
       <c r="N8">
-        <f>IF((H8+J8+L8+M8+O8)&lt;70,IF((H8+J8+L8+M8+O8)&gt;64,70,(H8+J8+L8+M8+O8)),(H8+J8+L8+M8+O8))</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
     </row>
@@ -1474,19 +1474,19 @@
         <v>29</v>
       </c>
       <c r="D9" s="6">
-        <f>IF((N9)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E9" s="2">
-        <f>IF((N9)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F9" s="2">
-        <f>IF((N9)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G9" s="6">
-        <f>IF((N9)&gt;=51,IF((N9-50)&gt;50,50,IF((N9-50)&lt;0,0,(N9-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H9">
@@ -1505,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="N9">
-        <f>IF((H9+J9+L9+M9+O9)&lt;70,IF((H9+J9+L9+M9+O9)&gt;64,70,(H9+J9+L9+M9+O9)),(H9+J9+L9+M9+O9))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1520,19 +1520,19 @@
         <v>31</v>
       </c>
       <c r="D10" s="6">
-        <f>IF((N10)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E10" s="2">
-        <f>IF((N10)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F10" s="2">
-        <f>IF((N10)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G10" s="6">
-        <f>IF((N10)&gt;=51,IF((N10-50)&gt;50,50,IF((N10-50)&lt;0,0,(N10-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H10">
@@ -1548,7 +1548,7 @@
         <v>35</v>
       </c>
       <c r="N10">
-        <f>IF((H10+J10+L10+M10+O10)&lt;70,IF((H10+J10+L10+M10+O10)&gt;64,70,(H10+J10+L10+M10+O10)),(H10+J10+L10+M10+O10))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1563,19 +1563,19 @@
         <v>33</v>
       </c>
       <c r="D11" s="6">
-        <f>IF((N11)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E11" s="2">
-        <f>IF((N11)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F11" s="2">
-        <f>IF((N11)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G11" s="6">
-        <f>IF((N11)&gt;=51,IF((N11-50)&gt;50,50,IF((N11-50)&lt;0,0,(N11-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="H11">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="N11">
-        <f>IF((H11+J11+L11+M11+O11)&lt;70,IF((H11+J11+L11+M11+O11)&gt;64,70,(H11+J11+L11+M11+O11)),(H11+J11+L11+M11+O11))</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
     </row>
@@ -1609,19 +1609,19 @@
         <v>35</v>
       </c>
       <c r="D12" s="6" t="str">
-        <f>IF((N12)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E12" s="2" t="str">
-        <f>IF((N12)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F12" s="2" t="str">
-        <f>IF((N12)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G12" s="6" t="str">
-        <f>IF((N12)&gt;=51,IF((N12-50)&gt;50,50,IF((N12-50)&lt;0,0,(N12-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J12">
@@ -1634,7 +1634,7 @@
         <v>40</v>
       </c>
       <c r="N12">
-        <f>IF((H12+J12+L12+M12+O12)&lt;70,IF((H12+J12+L12+M12+O12)&gt;64,70,(H12+J12+L12+M12+O12)),(H12+J12+L12+M12+O12))</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -1649,26 +1649,26 @@
         <v>37</v>
       </c>
       <c r="D13" s="6" t="str">
-        <f>IF((N13)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E13" s="2" t="str">
-        <f>IF((N13)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F13" s="2" t="str">
-        <f>IF((N13)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G13" s="6" t="str">
-        <f>IF((N13)&gt;=51,IF((N13-50)&gt;50,50,IF((N13-50)&lt;0,0,(N13-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="N13">
-        <f>IF((H13+J13+L13+M13+O13)&lt;70,IF((H13+J13+L13+M13+O13)&gt;64,70,(H13+J13+L13+M13+O13)),(H13+J13+L13+M13+O13))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1683,19 +1683,19 @@
         <v>39</v>
       </c>
       <c r="D14" s="6" t="str">
-        <f>IF((N14)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E14" s="2" t="str">
-        <f>IF((N14)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F14" s="2" t="str">
-        <f>IF((N14)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G14" s="6" t="str">
-        <f>IF((N14)&gt;=51,IF((N14-50)&gt;50,50,IF((N14-50)&lt;0,0,(N14-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J14">
@@ -1708,7 +1708,7 @@
         <v>20</v>
       </c>
       <c r="N14">
-        <f>IF((H14+J14+L14+M14+O14)&lt;70,IF((H14+J14+L14+M14+O14)&gt;64,70,(H14+J14+L14+M14+O14)),(H14+J14+L14+M14+O14))</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
     </row>
@@ -1723,26 +1723,26 @@
         <v>41</v>
       </c>
       <c r="D15" s="6" t="str">
-        <f>IF((N15)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E15" s="2" t="str">
-        <f>IF((N15)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F15" s="2" t="str">
-        <f>IF((N15)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G15" s="6" t="str">
-        <f>IF((N15)&gt;=51,IF((N15-50)&gt;50,50,IF((N15-50)&lt;0,0,(N15-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="N15">
-        <f>IF((H15+J15+L15+M15+O15)&lt;70,IF((H15+J15+L15+M15+O15)&gt;64,70,(H15+J15+L15+M15+O15)),(H15+J15+L15+M15+O15))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1757,19 +1757,19 @@
         <v>43</v>
       </c>
       <c r="D16" s="6">
-        <f>IF((N16)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E16" s="2">
-        <f>IF((N16)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F16" s="2">
-        <f>IF((N16)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G16" s="6">
-        <f>IF((N16)&gt;=51,IF((N16-50)&gt;50,50,IF((N16-50)&lt;0,0,(N16-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="H16">
@@ -1788,7 +1788,7 @@
         <v>30</v>
       </c>
       <c r="N16">
-        <f>IF((H16+J16+L16+M16+O16)&lt;70,IF((H16+J16+L16+M16+O16)&gt;64,70,(H16+J16+L16+M16+O16)),(H16+J16+L16+M16+O16))</f>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
     </row>
@@ -1803,19 +1803,19 @@
         <v>45</v>
       </c>
       <c r="D17" s="6">
-        <f>IF((N17)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E17" s="2">
-        <f>IF((N17)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F17" s="2">
-        <f>IF((N17)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G17" s="6">
-        <f>IF((N17)&gt;=51,IF((N17-50)&gt;50,50,IF((N17-50)&lt;0,0,(N17-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="J17">
@@ -1831,7 +1831,7 @@
         <v>25</v>
       </c>
       <c r="N17">
-        <f>IF((H17+J17+L17+M17+O17)&lt;70,IF((H17+J17+L17+M17+O17)&gt;64,70,(H17+J17+L17+M17+O17)),(H17+J17+L17+M17+O17))</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
     </row>
@@ -1846,19 +1846,19 @@
         <v>47</v>
       </c>
       <c r="D18" s="6">
-        <f>IF((N18)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E18" s="2">
-        <f>IF((N18)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F18" s="2">
-        <f>IF((N18)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G18" s="6">
-        <f>IF((N18)&gt;=51,IF((N18-50)&gt;50,50,IF((N18-50)&lt;0,0,(N18-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H18">
@@ -1877,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <f>IF((H18+J18+L18+M18+O18)&lt;70,IF((H18+J18+L18+M18+O18)&gt;64,70,(H18+J18+L18+M18+O18)),(H18+J18+L18+M18+O18))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1892,26 +1892,26 @@
         <v>49</v>
       </c>
       <c r="D19" s="6" t="str">
-        <f>IF((N19)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E19" s="2" t="str">
-        <f>IF((N19)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F19" s="2" t="str">
-        <f>IF((N19)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G19" s="6" t="str">
-        <f>IF((N19)&gt;=51,IF((N19-50)&gt;50,50,IF((N19-50)&lt;0,0,(N19-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="N19">
-        <f>IF((H19+J19+L19+M19+O19)&lt;70,IF((H19+J19+L19+M19+O19)&gt;64,70,(H19+J19+L19+M19+O19)),(H19+J19+L19+M19+O19))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1926,19 +1926,19 @@
         <v>51</v>
       </c>
       <c r="D20" s="6">
-        <f>IF((N20)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <f>IF((N20)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F20" s="2">
-        <f>IF((N20)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G20" s="6">
-        <f>IF((N20)&gt;=51,IF((N20-50)&gt;50,50,IF((N20-50)&lt;0,0,(N20-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="H20">
@@ -1957,7 +1957,7 @@
         <v>25</v>
       </c>
       <c r="N20">
-        <f>IF((H20+J20+L20+M20+O20)&lt;70,IF((H20+J20+L20+M20+O20)&gt;64,70,(H20+J20+L20+M20+O20)),(H20+J20+L20+M20+O20))</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -1972,19 +1972,19 @@
         <v>53</v>
       </c>
       <c r="D21" s="6">
-        <f>IF((N21)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E21" s="2">
-        <f>IF((N21)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F21" s="2">
-        <f>IF((N21)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G21" s="6">
-        <f>IF((N21)&gt;=51,IF((N21-50)&gt;50,50,IF((N21-50)&lt;0,0,(N21-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J21">
@@ -1997,7 +1997,7 @@
         <v>35</v>
       </c>
       <c r="N21">
-        <f>IF((H21+J21+L21+M21+O21)&lt;70,IF((H21+J21+L21+M21+O21)&gt;64,70,(H21+J21+L21+M21+O21)),(H21+J21+L21+M21+O21))</f>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
     </row>
@@ -2012,19 +2012,19 @@
         <v>55</v>
       </c>
       <c r="D22" s="6" t="str">
-        <f>IF((N22)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E22" s="2" t="str">
-        <f>IF((N22)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F22" s="2" t="str">
-        <f>IF((N22)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G22" s="6" t="str">
-        <f>IF((N22)&gt;=51,IF((N22-50)&gt;50,50,IF((N22-50)&lt;0,0,(N22-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H22">
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <f>IF((H22+J22+L22+M22+O22)&lt;70,IF((H22+J22+L22+M22+O22)&gt;64,70,(H22+J22+L22+M22+O22)),(H22+J22+L22+M22+O22))</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -2049,26 +2049,26 @@
         <v>57</v>
       </c>
       <c r="D23" s="6" t="str">
-        <f>IF((N23)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E23" s="2" t="str">
-        <f>IF((N23)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F23" s="2" t="str">
-        <f>IF((N23)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G23" s="6" t="str">
-        <f>IF((N23)&gt;=51,IF((N23-50)&gt;50,50,IF((N23-50)&lt;0,0,(N23-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="N23">
-        <f>IF((H23+J23+L23+M23+O23)&lt;70,IF((H23+J23+L23+M23+O23)&gt;64,70,(H23+J23+L23+M23+O23)),(H23+J23+L23+M23+O23))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2083,19 +2083,19 @@
         <v>59</v>
       </c>
       <c r="D24" s="6">
-        <f>IF((N24)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E24" s="2">
-        <f>IF((N24)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F24" s="2">
-        <f>IF((N24)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G24" s="6">
-        <f>IF((N24)&gt;=51,IF((N24-50)&gt;50,50,IF((N24-50)&lt;0,0,(N24-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="H24">
@@ -2111,7 +2111,7 @@
         <v>40</v>
       </c>
       <c r="N24">
-        <f>IF((H24+J24+L24+M24+O24)&lt;70,IF((H24+J24+L24+M24+O24)&gt;64,70,(H24+J24+L24+M24+O24)),(H24+J24+L24+M24+O24))</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
     </row>
@@ -2126,19 +2126,19 @@
         <v>61</v>
       </c>
       <c r="D25" s="6">
-        <f>IF((N25)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E25" s="2">
-        <f>IF((N25)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F25" s="2">
-        <f>IF((N25)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G25" s="6">
-        <f>IF((N25)&gt;=51,IF((N25-50)&gt;50,50,IF((N25-50)&lt;0,0,(N25-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="H25">
@@ -2157,7 +2157,7 @@
         <v>30</v>
       </c>
       <c r="N25">
-        <f>IF((H25+J25+L25+M25+O25)&lt;70,IF((H25+J25+L25+M25+O25)&gt;64,70,(H25+J25+L25+M25+O25)),(H25+J25+L25+M25+O25))</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
     </row>
@@ -2172,26 +2172,26 @@
         <v>63</v>
       </c>
       <c r="D26" s="6" t="str">
-        <f>IF((N26)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E26" s="2" t="str">
-        <f>IF((N26)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F26" s="2" t="str">
-        <f>IF((N26)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G26" s="6" t="str">
-        <f>IF((N26)&gt;=51,IF((N26-50)&gt;50,50,IF((N26-50)&lt;0,0,(N26-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="N26">
-        <f>IF((H26+J26+L26+M26+O26)&lt;70,IF((H26+J26+L26+M26+O26)&gt;64,70,(H26+J26+L26+M26+O26)),(H26+J26+L26+M26+O26))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2206,19 +2206,19 @@
         <v>65</v>
       </c>
       <c r="D27" s="6">
-        <f>IF((N27)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E27" s="2">
-        <f>IF((N27)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F27" s="2">
-        <f>IF((N27)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G27" s="6">
-        <f>IF((N27)&gt;=51,IF((N27-50)&gt;50,50,IF((N27-50)&lt;0,0,(N27-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="H27">
@@ -2237,7 +2237,7 @@
         <v>25</v>
       </c>
       <c r="N27">
-        <f>IF((H27+J27+L27+M27+O27)&lt;70,IF((H27+J27+L27+M27+O27)&gt;64,70,(H27+J27+L27+M27+O27)),(H27+J27+L27+M27+O27))</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
     </row>
@@ -2252,19 +2252,19 @@
         <v>67</v>
       </c>
       <c r="D28" s="6">
-        <f>IF((N28)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E28" s="2">
-        <f>IF((N28)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F28" s="2">
-        <f>IF((N28)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G28" s="6">
-        <f>IF((N28)&gt;=51,IF((N28-50)&gt;50,50,IF((N28-50)&lt;0,0,(N28-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H28">
@@ -2280,7 +2280,7 @@
         <v>35</v>
       </c>
       <c r="N28">
-        <f>IF((H28+J28+L28+M28+O28)&lt;70,IF((H28+J28+L28+M28+O28)&gt;64,70,(H28+J28+L28+M28+O28)),(H28+J28+L28+M28+O28))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2295,19 +2295,19 @@
         <v>69</v>
       </c>
       <c r="D29" s="6">
-        <f>IF((N29)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E29" s="2">
-        <f>IF((N29)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F29" s="2">
-        <f>IF((N29)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G29" s="6">
-        <f>IF((N29)&gt;=51,IF((N29-50)&gt;50,50,IF((N29-50)&lt;0,0,(N29-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="H29">
@@ -2326,7 +2326,7 @@
         <v>30</v>
       </c>
       <c r="N29">
-        <f>IF((H29+J29+L29+M29+O29)&lt;70,IF((H29+J29+L29+M29+O29)&gt;64,70,(H29+J29+L29+M29+O29)),(H29+J29+L29+M29+O29))</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
     </row>
@@ -2341,19 +2341,19 @@
         <v>71</v>
       </c>
       <c r="D30" s="6" t="str">
-        <f>IF((N30)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E30" s="2" t="str">
-        <f>IF((N30)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F30" s="2" t="str">
-        <f>IF((N30)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G30" s="6" t="str">
-        <f>IF((N30)&gt;=51,IF((N30-50)&gt;50,50,IF((N30-50)&lt;0,0,(N30-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J30">
@@ -2366,7 +2366,7 @@
         <v>25</v>
       </c>
       <c r="N30">
-        <f>IF((H30+J30+L30+M30+O30)&lt;70,IF((H30+J30+L30+M30+O30)&gt;64,70,(H30+J30+L30+M30+O30)),(H30+J30+L30+M30+O30))</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
     </row>
@@ -2381,19 +2381,19 @@
         <v>73</v>
       </c>
       <c r="D31" s="6" t="str">
-        <f>IF((N31)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E31" s="2" t="str">
-        <f>IF((N31)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F31" s="2" t="str">
-        <f>IF((N31)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G31" s="6" t="str">
-        <f>IF((N31)&gt;=51,IF((N31-50)&gt;50,50,IF((N31-50)&lt;0,0,(N31-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J31">
@@ -2406,7 +2406,7 @@
         <v>20</v>
       </c>
       <c r="N31">
-        <f>IF((H31+J31+L31+M31+O31)&lt;70,IF((H31+J31+L31+M31+O31)&gt;64,70,(H31+J31+L31+M31+O31)),(H31+J31+L31+M31+O31))</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -2421,19 +2421,19 @@
         <v>75</v>
       </c>
       <c r="D32" s="6">
-        <f>IF((N32)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E32" s="2">
-        <f>IF((N32)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F32" s="2">
-        <f>IF((N32)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G32" s="6">
-        <f>IF((N32)&gt;=51,IF((N32-50)&gt;50,50,IF((N32-50)&lt;0,0,(N32-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="H32">
@@ -2452,7 +2452,7 @@
         <v>20</v>
       </c>
       <c r="N32">
-        <f>IF((H32+J32+L32+M32+O32)&lt;70,IF((H32+J32+L32+M32+O32)&gt;64,70,(H32+J32+L32+M32+O32)),(H32+J32+L32+M32+O32))</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
     </row>
@@ -2467,19 +2467,19 @@
         <v>77</v>
       </c>
       <c r="D33" s="6">
-        <f>IF((N33)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E33" s="2">
-        <f>IF((N33)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F33" s="2">
-        <f>IF((N33)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G33" s="6">
-        <f>IF((N33)&gt;=51,IF((N33-50)&gt;50,50,IF((N33-50)&lt;0,0,(N33-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J33">
@@ -2495,7 +2495,7 @@
         <v>20</v>
       </c>
       <c r="N33">
-        <f>IF((H33+J33+L33+M33+O33)&lt;70,IF((H33+J33+L33+M33+O33)&gt;64,70,(H33+J33+L33+M33+O33)),(H33+J33+L33+M33+O33))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2510,19 +2510,19 @@
         <v>79</v>
       </c>
       <c r="D34" s="6">
-        <f>IF((N34)&gt;=50,10,"")</f>
+        <f t="shared" ref="D34:D65" si="5">IF((N34)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E34" s="2">
-        <f>IF((N34)&gt;=50,20,"")</f>
+        <f t="shared" ref="E34:E65" si="6">IF((N34)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F34" s="2">
-        <f>IF((N34)&gt;=50,20,"")</f>
+        <f t="shared" ref="F34:F65" si="7">IF((N34)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G34" s="6">
-        <f>IF((N34)&gt;=51,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
+        <f t="shared" ref="G34:G65" si="8">IF((N34)&gt;=51,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H34">
@@ -2541,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="N34">
-        <f>IF((H34+J34+L34+M34+O34)&lt;70,IF((H34+J34+L34+M34+O34)&gt;64,70,(H34+J34+L34+M34+O34)),(H34+J34+L34+M34+O34))</f>
+        <f t="shared" ref="N34:N65" si="9">IF((H34+J34+L34+M34+O34)&lt;70,IF((H34+J34+L34+M34+O34)&gt;64,70,(H34+J34+L34+M34+O34)),(H34+J34+L34+M34+O34))</f>
         <v>70</v>
       </c>
     </row>
@@ -2556,26 +2556,26 @@
         <v>81</v>
       </c>
       <c r="D35" s="6" t="str">
-        <f>IF((N35)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E35" s="2" t="str">
-        <f>IF((N35)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F35" s="2" t="str">
-        <f>IF((N35)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G35" s="6" t="str">
-        <f>IF((N35)&gt;=51,IF((N35-50)&gt;50,50,IF((N35-50)&lt;0,0,(N35-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="N35">
-        <f>IF((H35+J35+L35+M35+O35)&lt;70,IF((H35+J35+L35+M35+O35)&gt;64,70,(H35+J35+L35+M35+O35)),(H35+J35+L35+M35+O35))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2590,19 +2590,19 @@
         <v>83</v>
       </c>
       <c r="D36" s="6">
-        <f>IF((N36)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E36" s="2">
-        <f>IF((N36)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F36" s="2">
-        <f>IF((N36)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G36" s="6">
-        <f>IF((N36)&gt;=51,IF((N36-50)&gt;50,50,IF((N36-50)&lt;0,0,(N36-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="H36">
@@ -2621,7 +2621,7 @@
         <v>30</v>
       </c>
       <c r="N36">
-        <f>IF((H36+J36+L36+M36+O36)&lt;70,IF((H36+J36+L36+M36+O36)&gt;64,70,(H36+J36+L36+M36+O36)),(H36+J36+L36+M36+O36))</f>
+        <f t="shared" si="9"/>
         <v>102</v>
       </c>
     </row>
@@ -2636,19 +2636,19 @@
         <v>85</v>
       </c>
       <c r="D37" s="6">
-        <f>IF((N37)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E37" s="2">
-        <f>IF((N37)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F37" s="2">
-        <f>IF((N37)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G37" s="6">
-        <f>IF((N37)&gt;=51,IF((N37-50)&gt;50,50,IF((N37-50)&lt;0,0,(N37-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="H37">
@@ -2667,7 +2667,7 @@
         <v>30</v>
       </c>
       <c r="N37">
-        <f>IF((H37+J37+L37+M37+O37)&lt;70,IF((H37+J37+L37+M37+O37)&gt;64,70,(H37+J37+L37+M37+O37)),(H37+J37+L37+M37+O37))</f>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
     </row>
@@ -2682,19 +2682,19 @@
         <v>87</v>
       </c>
       <c r="D38" s="6">
-        <f>IF((N38)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E38" s="2">
-        <f>IF((N38)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F38" s="2">
-        <f>IF((N38)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G38" s="6">
-        <f>IF((N38)&gt;=51,IF((N38-50)&gt;50,50,IF((N38-50)&lt;0,0,(N38-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="J38">
@@ -2710,7 +2710,7 @@
         <v>30</v>
       </c>
       <c r="N38">
-        <f>IF((H38+J38+L38+M38+O38)&lt;70,IF((H38+J38+L38+M38+O38)&gt;64,70,(H38+J38+L38+M38+O38)),(H38+J38+L38+M38+O38))</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
     </row>
@@ -2725,19 +2725,19 @@
         <v>89</v>
       </c>
       <c r="D39" s="6">
-        <f>IF((N39)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E39" s="2">
-        <f>IF((N39)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F39" s="2">
-        <f>IF((N39)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G39" s="6">
-        <f>IF((N39)&gt;=51,IF((N39-50)&gt;50,50,IF((N39-50)&lt;0,0,(N39-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="H39">
@@ -2753,7 +2753,7 @@
         <v>40</v>
       </c>
       <c r="N39">
-        <f>IF((H39+J39+L39+M39+O39)&lt;70,IF((H39+J39+L39+M39+O39)&gt;64,70,(H39+J39+L39+M39+O39)),(H39+J39+L39+M39+O39))</f>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
     </row>
@@ -2768,19 +2768,19 @@
         <v>91</v>
       </c>
       <c r="D40" s="6">
-        <f>IF((N40)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E40" s="2">
-        <f>IF((N40)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F40" s="2">
-        <f>IF((N40)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G40" s="6">
-        <f>IF((N40)&gt;=51,IF((N40-50)&gt;50,50,IF((N40-50)&lt;0,0,(N40-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J40">
@@ -2796,7 +2796,7 @@
         <v>30</v>
       </c>
       <c r="N40">
-        <f>IF((H40+J40+L40+M40+O40)&lt;70,IF((H40+J40+L40+M40+O40)&gt;64,70,(H40+J40+L40+M40+O40)),(H40+J40+L40+M40+O40))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -2811,19 +2811,19 @@
         <v>93</v>
       </c>
       <c r="D41" s="6">
-        <f>IF((N41)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E41" s="2">
-        <f>IF((N41)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F41" s="2">
-        <f>IF((N41)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G41" s="6">
-        <f>IF((N41)&gt;=51,IF((N41-50)&gt;50,50,IF((N41-50)&lt;0,0,(N41-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H41">
@@ -2839,7 +2839,7 @@
         <v>40</v>
       </c>
       <c r="N41">
-        <f>IF((H41+J41+L41+M41+O41)&lt;70,IF((H41+J41+L41+M41+O41)&gt;64,70,(H41+J41+L41+M41+O41)),(H41+J41+L41+M41+O41))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -2854,19 +2854,19 @@
         <v>95</v>
       </c>
       <c r="D42" s="6">
-        <f>IF((N42)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E42" s="2">
-        <f>IF((N42)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F42" s="2">
-        <f>IF((N42)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G42" s="6">
-        <f>IF((N42)&gt;=51,IF((N42-50)&gt;50,50,IF((N42-50)&lt;0,0,(N42-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H42">
@@ -2882,7 +2882,7 @@
         <v>40</v>
       </c>
       <c r="N42">
-        <f>IF((H42+J42+L42+M42+O42)&lt;70,IF((H42+J42+L42+M42+O42)&gt;64,70,(H42+J42+L42+M42+O42)),(H42+J42+L42+M42+O42))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -2897,19 +2897,19 @@
         <v>97</v>
       </c>
       <c r="D43" s="6">
-        <f>IF((N43)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <f>IF((N43)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F43" s="2">
-        <f>IF((N43)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G43" s="6">
-        <f>IF((N43)&gt;=51,IF((N43-50)&gt;50,50,IF((N43-50)&lt;0,0,(N43-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="H43">
@@ -2925,7 +2925,7 @@
         <v>40</v>
       </c>
       <c r="N43">
-        <f>IF((H43+J43+L43+M43+O43)&lt;70,IF((H43+J43+L43+M43+O43)&gt;64,70,(H43+J43+L43+M43+O43)),(H43+J43+L43+M43+O43))</f>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
     </row>
@@ -2940,19 +2940,19 @@
         <v>99</v>
       </c>
       <c r="D44" s="6">
-        <f>IF((N44)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E44" s="2">
-        <f>IF((N44)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F44" s="2">
-        <f>IF((N44)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G44" s="6">
-        <f>IF((N44)&gt;=51,IF((N44-50)&gt;50,50,IF((N44-50)&lt;0,0,(N44-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="H44">
@@ -2971,7 +2971,7 @@
         <v>15</v>
       </c>
       <c r="N44">
-        <f>IF((H44+J44+L44+M44+O44)&lt;70,IF((H44+J44+L44+M44+O44)&gt;64,70,(H44+J44+L44+M44+O44)),(H44+J44+L44+M44+O44))</f>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
     </row>
@@ -2986,19 +2986,19 @@
         <v>101</v>
       </c>
       <c r="D45" s="6">
-        <f>IF((N45)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E45" s="2">
-        <f>IF((N45)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F45" s="2">
-        <f>IF((N45)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G45" s="6">
-        <f>IF((N45)&gt;=51,IF((N45-50)&gt;50,50,IF((N45-50)&lt;0,0,(N45-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="H45">
@@ -3014,7 +3014,7 @@
         <v>40</v>
       </c>
       <c r="N45">
-        <f>IF((H45+J45+L45+M45+O45)&lt;70,IF((H45+J45+L45+M45+O45)&gt;64,70,(H45+J45+L45+M45+O45)),(H45+J45+L45+M45+O45))</f>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
     </row>
@@ -3029,19 +3029,19 @@
         <v>103</v>
       </c>
       <c r="D46" s="6">
-        <f>IF((N46)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E46" s="2">
-        <f>IF((N46)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F46" s="2">
-        <f>IF((N46)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G46" s="6">
-        <f>IF((N46)&gt;=51,IF((N46-50)&gt;50,50,IF((N46-50)&lt;0,0,(N46-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H46">
@@ -3057,7 +3057,7 @@
         <v>40</v>
       </c>
       <c r="N46">
-        <f>IF((H46+J46+L46+M46+O46)&lt;70,IF((H46+J46+L46+M46+O46)&gt;64,70,(H46+J46+L46+M46+O46)),(H46+J46+L46+M46+O46))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3072,19 +3072,19 @@
         <v>105</v>
       </c>
       <c r="D47" s="6">
-        <f>IF((N47)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E47" s="2">
-        <f>IF((N47)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F47" s="2">
-        <f>IF((N47)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G47" s="6">
-        <f>IF((N47)&gt;=51,IF((N47-50)&gt;50,50,IF((N47-50)&lt;0,0,(N47-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H47">
@@ -3100,7 +3100,7 @@
         <v>35</v>
       </c>
       <c r="N47">
-        <f>IF((H47+J47+L47+M47+O47)&lt;70,IF((H47+J47+L47+M47+O47)&gt;64,70,(H47+J47+L47+M47+O47)),(H47+J47+L47+M47+O47))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3115,19 +3115,19 @@
         <v>107</v>
       </c>
       <c r="D48" s="6">
-        <f>IF((N48)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E48" s="2">
-        <f>IF((N48)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F48" s="2">
-        <f>IF((N48)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G48" s="6">
-        <f>IF((N48)&gt;=51,IF((N48-50)&gt;50,50,IF((N48-50)&lt;0,0,(N48-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="H48">
@@ -3146,7 +3146,7 @@
         <v>30</v>
       </c>
       <c r="N48">
-        <f>IF((H48+J48+L48+M48+O48)&lt;70,IF((H48+J48+L48+M48+O48)&gt;64,70,(H48+J48+L48+M48+O48)),(H48+J48+L48+M48+O48))</f>
+        <f t="shared" si="9"/>
         <v>97</v>
       </c>
     </row>
@@ -3161,19 +3161,19 @@
         <v>109</v>
       </c>
       <c r="D49" s="6">
-        <f>IF((N49)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E49" s="2">
-        <f>IF((N49)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F49" s="2">
-        <f>IF((N49)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G49" s="6">
-        <f>IF((N49)&gt;=51,IF((N49-50)&gt;50,50,IF((N49-50)&lt;0,0,(N49-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="H49">
@@ -3192,7 +3192,7 @@
         <v>30</v>
       </c>
       <c r="N49">
-        <f>IF((H49+J49+L49+M49+O49)&lt;70,IF((H49+J49+L49+M49+O49)&gt;64,70,(H49+J49+L49+M49+O49)),(H49+J49+L49+M49+O49))</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
     </row>
@@ -3207,19 +3207,19 @@
         <v>111</v>
       </c>
       <c r="D50" s="6">
-        <f>IF((N50)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E50" s="2">
-        <f>IF((N50)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F50" s="2">
-        <f>IF((N50)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G50" s="6">
-        <f>IF((N50)&gt;=51,IF((N50-50)&gt;50,50,IF((N50-50)&lt;0,0,(N50-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="H50">
@@ -3238,7 +3238,7 @@
         <v>20</v>
       </c>
       <c r="N50">
-        <f>IF((H50+J50+L50+M50+O50)&lt;70,IF((H50+J50+L50+M50+O50)&gt;64,70,(H50+J50+L50+M50+O50)),(H50+J50+L50+M50+O50))</f>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
     </row>
@@ -3253,19 +3253,19 @@
         <v>113</v>
       </c>
       <c r="D51" s="6">
-        <f>IF((N51)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E51" s="2">
-        <f>IF((N51)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F51" s="2">
-        <f>IF((N51)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G51" s="6">
-        <f>IF((N51)&gt;=51,IF((N51-50)&gt;50,50,IF((N51-50)&lt;0,0,(N51-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="H51">
@@ -3284,7 +3284,7 @@
         <v>30</v>
       </c>
       <c r="N51">
-        <f>IF((H51+J51+L51+M51+O51)&lt;70,IF((H51+J51+L51+M51+O51)&gt;64,70,(H51+J51+L51+M51+O51)),(H51+J51+L51+M51+O51))</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
     </row>
@@ -3299,19 +3299,19 @@
         <v>115</v>
       </c>
       <c r="D52" s="6">
-        <f>IF((N52)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E52" s="2">
-        <f>IF((N52)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F52" s="2">
-        <f>IF((N52)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G52" s="6">
-        <f>IF((N52)&gt;=51,IF((N52-50)&gt;50,50,IF((N52-50)&lt;0,0,(N52-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="H52">
@@ -3330,7 +3330,7 @@
         <v>30</v>
       </c>
       <c r="N52">
-        <f>IF((H52+J52+L52+M52+O52)&lt;70,IF((H52+J52+L52+M52+O52)&gt;64,70,(H52+J52+L52+M52+O52)),(H52+J52+L52+M52+O52))</f>
+        <f t="shared" si="9"/>
         <v>99</v>
       </c>
     </row>
@@ -3345,19 +3345,19 @@
         <v>117</v>
       </c>
       <c r="D53" s="6">
-        <f>IF((N53)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E53" s="2">
-        <f>IF((N53)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F53" s="2">
-        <f>IF((N53)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G53" s="6">
-        <f>IF((N53)&gt;=51,IF((N53-50)&gt;50,50,IF((N53-50)&lt;0,0,(N53-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H53">
@@ -3376,7 +3376,7 @@
         <v>4</v>
       </c>
       <c r="N53">
-        <f>IF((H53+J53+L53+M53+O53)&lt;70,IF((H53+J53+L53+M53+O53)&gt;64,70,(H53+J53+L53+M53+O53)),(H53+J53+L53+M53+O53))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3391,19 +3391,19 @@
         <v>119</v>
       </c>
       <c r="D54" s="6">
-        <f>IF((N54)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E54" s="2">
-        <f>IF((N54)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F54" s="2">
-        <f>IF((N54)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G54" s="6">
-        <f>IF((N54)&gt;=51,IF((N54-50)&gt;50,50,IF((N54-50)&lt;0,0,(N54-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="H54">
@@ -3419,7 +3419,7 @@
         <v>40</v>
       </c>
       <c r="N54">
-        <f>IF((H54+J54+L54+M54+O54)&lt;70,IF((H54+J54+L54+M54+O54)&gt;64,70,(H54+J54+L54+M54+O54)),(H54+J54+L54+M54+O54))</f>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
@@ -3434,19 +3434,19 @@
         <v>121</v>
       </c>
       <c r="D55" s="6">
-        <f>IF((N55)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E55" s="2">
-        <f>IF((N55)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F55" s="2">
-        <f>IF((N55)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G55" s="6">
-        <f>IF((N55)&gt;=51,IF((N55-50)&gt;50,50,IF((N55-50)&lt;0,0,(N55-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="H55">
@@ -3465,7 +3465,7 @@
         <v>30</v>
       </c>
       <c r="N55">
-        <f>IF((H55+J55+L55+M55+O55)&lt;70,IF((H55+J55+L55+M55+O55)&gt;64,70,(H55+J55+L55+M55+O55)),(H55+J55+L55+M55+O55))</f>
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
     </row>
@@ -3480,19 +3480,19 @@
         <v>123</v>
       </c>
       <c r="D56" s="6">
-        <f>IF((N56)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E56" s="2">
-        <f>IF((N56)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F56" s="2">
-        <f>IF((N56)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G56" s="6">
-        <f>IF((N56)&gt;=51,IF((N56-50)&gt;50,50,IF((N56-50)&lt;0,0,(N56-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H56">
@@ -3508,7 +3508,7 @@
         <v>35</v>
       </c>
       <c r="N56">
-        <f>IF((H56+J56+L56+M56+O56)&lt;70,IF((H56+J56+L56+M56+O56)&gt;64,70,(H56+J56+L56+M56+O56)),(H56+J56+L56+M56+O56))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3523,19 +3523,19 @@
         <v>125</v>
       </c>
       <c r="D57" s="6">
-        <f>IF((N57)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E57" s="2">
-        <f>IF((N57)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F57" s="2">
-        <f>IF((N57)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G57" s="6">
-        <f>IF((N57)&gt;=51,IF((N57-50)&gt;50,50,IF((N57-50)&lt;0,0,(N57-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J57">
@@ -3551,7 +3551,7 @@
         <v>20</v>
       </c>
       <c r="N57">
-        <f>IF((H57+J57+L57+M57+O57)&lt;70,IF((H57+J57+L57+M57+O57)&gt;64,70,(H57+J57+L57+M57+O57)),(H57+J57+L57+M57+O57))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3566,19 +3566,19 @@
         <v>127</v>
       </c>
       <c r="D58" s="6">
-        <f>IF((N58)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E58" s="2">
-        <f>IF((N58)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F58" s="2">
-        <f>IF((N58)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G58" s="6">
-        <f>IF((N58)&gt;=51,IF((N58-50)&gt;50,50,IF((N58-50)&lt;0,0,(N58-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="H58">
@@ -3597,7 +3597,7 @@
         <v>20</v>
       </c>
       <c r="N58">
-        <f>IF((H58+J58+L58+M58+O58)&lt;70,IF((H58+J58+L58+M58+O58)&gt;64,70,(H58+J58+L58+M58+O58)),(H58+J58+L58+M58+O58))</f>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
     </row>
@@ -3612,19 +3612,19 @@
         <v>129</v>
       </c>
       <c r="D59" s="6">
-        <f>IF((N59)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E59" s="2">
-        <f>IF((N59)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F59" s="2">
-        <f>IF((N59)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G59" s="6">
-        <f>IF((N59)&gt;=51,IF((N59-50)&gt;50,50,IF((N59-50)&lt;0,0,(N59-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="H59">
@@ -3643,7 +3643,7 @@
         <v>30</v>
       </c>
       <c r="N59">
-        <f>IF((H59+J59+L59+M59+O59)&lt;70,IF((H59+J59+L59+M59+O59)&gt;64,70,(H59+J59+L59+M59+O59)),(H59+J59+L59+M59+O59))</f>
+        <f t="shared" si="9"/>
         <v>102</v>
       </c>
     </row>
@@ -3658,19 +3658,19 @@
         <v>131</v>
       </c>
       <c r="D60" s="6">
-        <f>IF((N60)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E60" s="2">
-        <f>IF((N60)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F60" s="2">
-        <f>IF((N60)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G60" s="6">
-        <f>IF((N60)&gt;=51,IF((N60-50)&gt;50,50,IF((N60-50)&lt;0,0,(N60-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="H60">
@@ -3686,7 +3686,7 @@
         <v>35</v>
       </c>
       <c r="N60">
-        <f>IF((H60+J60+L60+M60+O60)&lt;70,IF((H60+J60+L60+M60+O60)&gt;64,70,(H60+J60+L60+M60+O60)),(H60+J60+L60+M60+O60))</f>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
     </row>
@@ -3701,19 +3701,19 @@
         <v>133</v>
       </c>
       <c r="D61" s="6">
-        <f>IF((N61)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E61" s="2">
-        <f>IF((N61)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F61" s="2">
-        <f>IF((N61)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G61" s="6">
-        <f>IF((N61)&gt;=51,IF((N61-50)&gt;50,50,IF((N61-50)&lt;0,0,(N61-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H61">
@@ -3729,7 +3729,7 @@
         <v>40</v>
       </c>
       <c r="N61">
-        <f>IF((H61+J61+L61+M61+O61)&lt;70,IF((H61+J61+L61+M61+O61)&gt;64,70,(H61+J61+L61+M61+O61)),(H61+J61+L61+M61+O61))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3744,19 +3744,19 @@
         <v>135</v>
       </c>
       <c r="D62" s="6">
-        <f>IF((N62)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E62" s="2">
-        <f>IF((N62)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F62" s="2">
-        <f>IF((N62)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G62" s="6">
-        <f>IF((N62)&gt;=51,IF((N62-50)&gt;50,50,IF((N62-50)&lt;0,0,(N62-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H62">
@@ -3772,7 +3772,7 @@
         <v>40</v>
       </c>
       <c r="N62">
-        <f>IF((H62+J62+L62+M62+O62)&lt;70,IF((H62+J62+L62+M62+O62)&gt;64,70,(H62+J62+L62+M62+O62)),(H62+J62+L62+M62+O62))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3787,19 +3787,19 @@
         <v>137</v>
       </c>
       <c r="D63" s="6">
-        <f>IF((N63)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E63" s="2">
-        <f>IF((N63)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F63" s="2">
-        <f>IF((N63)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G63" s="6">
-        <f>IF((N63)&gt;=51,IF((N63-50)&gt;50,50,IF((N63-50)&lt;0,0,(N63-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="H63">
@@ -3818,7 +3818,7 @@
         <v>30</v>
       </c>
       <c r="N63">
-        <f>IF((H63+J63+L63+M63+O63)&lt;70,IF((H63+J63+L63+M63+O63)&gt;64,70,(H63+J63+L63+M63+O63)),(H63+J63+L63+M63+O63))</f>
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
     </row>
@@ -3833,19 +3833,19 @@
         <v>139</v>
       </c>
       <c r="D64" s="6">
-        <f>IF((N64)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E64" s="2">
-        <f>IF((N64)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F64" s="2">
-        <f>IF((N64)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G64" s="6">
-        <f>IF((N64)&gt;=51,IF((N64-50)&gt;50,50,IF((N64-50)&lt;0,0,(N64-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="H64">
@@ -3864,7 +3864,7 @@
         <v>30</v>
       </c>
       <c r="N64">
-        <f>IF((H64+J64+L64+M64+O64)&lt;70,IF((H64+J64+L64+M64+O64)&gt;64,70,(H64+J64+L64+M64+O64)),(H64+J64+L64+M64+O64))</f>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
@@ -3879,26 +3879,26 @@
         <v>141</v>
       </c>
       <c r="D65" s="6" t="str">
-        <f>IF((N65)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E65" s="2" t="str">
-        <f>IF((N65)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F65" s="2" t="str">
-        <f>IF((N65)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G65" s="6" t="str">
-        <f>IF((N65)&gt;=51,IF((N65-50)&gt;50,50,IF((N65-50)&lt;0,0,(N65-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="N65">
-        <f>IF((H65+J65+L65+M65+O65)&lt;70,IF((H65+J65+L65+M65+O65)&gt;64,70,(H65+J65+L65+M65+O65)),(H65+J65+L65+M65+O65))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3913,26 +3913,26 @@
         <v>143</v>
       </c>
       <c r="D66" s="6" t="str">
-        <f>IF((N66)&gt;=50,10,"")</f>
+        <f t="shared" ref="D66:D83" si="10">IF((N66)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E66" s="2" t="str">
-        <f>IF((N66)&gt;=50,20,"")</f>
+        <f t="shared" ref="E66:E83" si="11">IF((N66)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F66" s="2" t="str">
-        <f>IF((N66)&gt;=50,20,"")</f>
+        <f t="shared" ref="F66:F83" si="12">IF((N66)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G66" s="6" t="str">
-        <f>IF((N66)&gt;=51,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
+        <f t="shared" ref="G66:G83" si="13">IF((N66)&gt;=51,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
         <v/>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="N66">
-        <f>IF((H66+J66+L66+M66+O66)&lt;70,IF((H66+J66+L66+M66+O66)&gt;64,70,(H66+J66+L66+M66+O66)),(H66+J66+L66+M66+O66))</f>
+        <f t="shared" ref="N66:N97" si="14">IF((H66+J66+L66+M66+O66)&lt;70,IF((H66+J66+L66+M66+O66)&gt;64,70,(H66+J66+L66+M66+O66)),(H66+J66+L66+M66+O66))</f>
         <v>0</v>
       </c>
     </row>
@@ -3947,26 +3947,26 @@
         <v>145</v>
       </c>
       <c r="D67" s="6" t="str">
-        <f>IF((N67)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E67" s="2" t="str">
-        <f>IF((N67)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F67" s="2" t="str">
-        <f>IF((N67)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G67" s="6" t="str">
-        <f>IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f>IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3981,26 +3981,26 @@
         <v>147</v>
       </c>
       <c r="D68" s="6" t="str">
-        <f>IF((N68)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E68" s="2" t="str">
-        <f>IF((N68)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F68" s="2" t="str">
-        <f>IF((N68)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G68" s="6" t="str">
-        <f>IF((N68)&gt;=51,IF((N68-50)&gt;50,50,IF((N68-50)&lt;0,0,(N68-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="N68">
-        <f>IF((H68+J68+L68+M68+O68)&lt;70,IF((H68+J68+L68+M68+O68)&gt;64,70,(H68+J68+L68+M68+O68)),(H68+J68+L68+M68+O68))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4015,19 +4015,19 @@
         <v>149</v>
       </c>
       <c r="D69" s="6" t="str">
-        <f>IF((N69)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E69" s="2" t="str">
-        <f>IF((N69)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F69" s="2" t="str">
-        <f>IF((N69)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G69" s="6" t="str">
-        <f>IF((N69)&gt;=51,IF((N69-50)&gt;50,50,IF((N69-50)&lt;0,0,(N69-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H69">
@@ -4043,7 +4043,7 @@
         <v>20</v>
       </c>
       <c r="N69">
-        <f>IF((H69+J69+L69+M69+O69)&lt;70,IF((H69+J69+L69+M69+O69)&gt;64,70,(H69+J69+L69+M69+O69)),(H69+J69+L69+M69+O69))</f>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
     </row>
@@ -4058,19 +4058,19 @@
         <v>151</v>
       </c>
       <c r="D70" s="6">
-        <f>IF((N70)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E70" s="2">
-        <f>IF((N70)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F70" s="2">
-        <f>IF((N70)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G70" s="6">
-        <f>IF((N70)&gt;=51,IF((N70-50)&gt;50,50,IF((N70-50)&lt;0,0,(N70-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H70">
@@ -4086,7 +4086,7 @@
         <v>40</v>
       </c>
       <c r="N70">
-        <f>IF((H70+J70+L70+M70+O70)&lt;70,IF((H70+J70+L70+M70+O70)&gt;64,70,(H70+J70+L70+M70+O70)),(H70+J70+L70+M70+O70))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -4101,19 +4101,19 @@
         <v>153</v>
       </c>
       <c r="D71" s="6">
-        <f>IF((N71)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E71" s="2">
-        <f>IF((N71)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F71" s="2">
-        <f>IF((N71)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G71" s="6">
-        <f>IF((N71)&gt;=51,IF((N71-50)&gt;50,50,IF((N71-50)&lt;0,0,(N71-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="J71">
@@ -4129,7 +4129,7 @@
         <v>30</v>
       </c>
       <c r="N71">
-        <f>IF((H71+J71+L71+M71+O71)&lt;70,IF((H71+J71+L71+M71+O71)&gt;64,70,(H71+J71+L71+M71+O71)),(H71+J71+L71+M71+O71))</f>
+        <f t="shared" si="14"/>
         <v>85</v>
       </c>
     </row>
@@ -4144,19 +4144,19 @@
         <v>155</v>
       </c>
       <c r="D72" s="6" t="str">
-        <f>IF((N72)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E72" s="2" t="str">
-        <f>IF((N72)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F72" s="2" t="str">
-        <f>IF((N72)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G72" s="6" t="str">
-        <f>IF((N72)&gt;=51,IF((N72-50)&gt;50,50,IF((N72-50)&lt;0,0,(N72-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J72">
@@ -4169,7 +4169,7 @@
         <v>20</v>
       </c>
       <c r="N72">
-        <f>IF((H72+J72+L72+M72+O72)&lt;70,IF((H72+J72+L72+M72+O72)&gt;64,70,(H72+J72+L72+M72+O72)),(H72+J72+L72+M72+O72))</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
     </row>
@@ -4184,19 +4184,19 @@
         <v>157</v>
       </c>
       <c r="D73" s="6">
-        <f>IF((N73)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E73" s="2">
-        <f>IF((N73)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F73" s="2">
-        <f>IF((N73)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G73" s="6">
-        <f>IF((N73)&gt;=51,IF((N73-50)&gt;50,50,IF((N73-50)&lt;0,0,(N73-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="H73">
@@ -4215,7 +4215,7 @@
         <v>30</v>
       </c>
       <c r="N73">
-        <f>IF((H73+J73+L73+M73+O73)&lt;70,IF((H73+J73+L73+M73+O73)&gt;64,70,(H73+J73+L73+M73+O73)),(H73+J73+L73+M73+O73))</f>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
     </row>
@@ -4230,19 +4230,19 @@
         <v>159</v>
       </c>
       <c r="D74" s="6">
-        <f>IF((N74)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E74" s="2">
-        <f>IF((N74)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F74" s="2">
-        <f>IF((N74)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G74" s="6">
-        <f>IF((N74)&gt;=51,IF((N74-50)&gt;50,50,IF((N74-50)&lt;0,0,(N74-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="H74">
@@ -4258,7 +4258,7 @@
         <v>35</v>
       </c>
       <c r="N74">
-        <f>IF((H74+J74+L74+M74+O74)&lt;70,IF((H74+J74+L74+M74+O74)&gt;64,70,(H74+J74+L74+M74+O74)),(H74+J74+L74+M74+O74))</f>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
     </row>
@@ -4273,19 +4273,19 @@
         <v>161</v>
       </c>
       <c r="D75" s="6">
-        <f>IF((N75)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E75" s="2">
-        <f>IF((N75)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F75" s="2">
-        <f>IF((N75)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G75" s="6">
-        <f>IF((N75)&gt;=51,IF((N75-50)&gt;50,50,IF((N75-50)&lt;0,0,(N75-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="H75">
@@ -4304,7 +4304,7 @@
         <v>20</v>
       </c>
       <c r="N75">
-        <f>IF((H75+J75+L75+M75+O75)&lt;70,IF((H75+J75+L75+M75+O75)&gt;64,70,(H75+J75+L75+M75+O75)),(H75+J75+L75+M75+O75))</f>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
     </row>
@@ -4319,19 +4319,19 @@
         <v>163</v>
       </c>
       <c r="D76" s="6">
-        <f>IF((N76)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E76" s="2">
-        <f>IF((N76)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F76" s="2">
-        <f>IF((N76)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G76" s="6">
-        <f>IF((N76)&gt;=51,IF((N76-50)&gt;50,50,IF((N76-50)&lt;0,0,(N76-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="J76">
@@ -4347,7 +4347,7 @@
         <v>30</v>
       </c>
       <c r="N76">
-        <f>IF((H76+J76+L76+M76+O76)&lt;70,IF((H76+J76+L76+M76+O76)&gt;64,70,(H76+J76+L76+M76+O76)),(H76+J76+L76+M76+O76))</f>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
     </row>
@@ -4362,19 +4362,19 @@
         <v>165</v>
       </c>
       <c r="D77" s="6">
-        <f>IF((N77)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E77" s="2">
-        <f>IF((N77)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F77" s="2">
-        <f>IF((N77)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G77" s="6">
-        <f>IF((N77)&gt;=51,IF((N77-50)&gt;50,50,IF((N77-50)&lt;0,0,(N77-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="H77">
@@ -4393,7 +4393,7 @@
         <v>29</v>
       </c>
       <c r="N77">
-        <f>IF((H77+J77+L77+M77+O77)&lt;70,IF((H77+J77+L77+M77+O77)&gt;64,70,(H77+J77+L77+M77+O77)),(H77+J77+L77+M77+O77))</f>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
     </row>
@@ -4408,19 +4408,19 @@
         <v>167</v>
       </c>
       <c r="D78" s="6">
-        <f>IF((N78)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E78" s="2">
-        <f>IF((N78)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F78" s="2">
-        <f>IF((N78)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G78" s="6">
-        <f>IF((N78)&gt;=51,IF((N78-50)&gt;50,50,IF((N78-50)&lt;0,0,(N78-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="H78">
@@ -4439,7 +4439,7 @@
         <v>30</v>
       </c>
       <c r="N78">
-        <f>IF((H78+J78+L78+M78+O78)&lt;70,IF((H78+J78+L78+M78+O78)&gt;64,70,(H78+J78+L78+M78+O78)),(H78+J78+L78+M78+O78))</f>
+        <f t="shared" si="14"/>
         <v>108</v>
       </c>
     </row>
@@ -4454,19 +4454,19 @@
         <v>169</v>
       </c>
       <c r="D79" s="6">
-        <f>IF((N79)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E79" s="2">
-        <f>IF((N79)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F79" s="2">
-        <f>IF((N79)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G79" s="6">
-        <f>IF((N79)&gt;=51,IF((N79-50)&gt;50,50,IF((N79-50)&lt;0,0,(N79-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="J79">
@@ -4482,7 +4482,7 @@
         <v>30</v>
       </c>
       <c r="N79">
-        <f>IF((H79+J79+L79+M79+O79)&lt;70,IF((H79+J79+L79+M79+O79)&gt;64,70,(H79+J79+L79+M79+O79)),(H79+J79+L79+M79+O79))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -4497,19 +4497,19 @@
         <v>171</v>
       </c>
       <c r="D80" s="6">
-        <f>IF((N80)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E80" s="2">
-        <f>IF((N80)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F80" s="2">
-        <f>IF((N80)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G80" s="6">
-        <f>IF((N80)&gt;=51,IF((N80-50)&gt;50,50,IF((N80-50)&lt;0,0,(N80-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="H80">
@@ -4528,7 +4528,7 @@
         <v>30</v>
       </c>
       <c r="N80">
-        <f>IF((H80+J80+L80+M80+O80)&lt;70,IF((H80+J80+L80+M80+O80)&gt;64,70,(H80+J80+L80+M80+O80)),(H80+J80+L80+M80+O80))</f>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
     </row>
@@ -4543,19 +4543,19 @@
         <v>173</v>
       </c>
       <c r="D81" s="6">
-        <f>IF((N81)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E81" s="2">
-        <f>IF((N81)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F81" s="2">
-        <f>IF((N81)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G81" s="6">
-        <f>IF((N81)&gt;=51,IF((N81-50)&gt;50,50,IF((N81-50)&lt;0,0,(N81-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H81">
@@ -4571,7 +4571,7 @@
         <v>40</v>
       </c>
       <c r="N81">
-        <f>IF((H81+J81+L81+M81+O81)&lt;70,IF((H81+J81+L81+M81+O81)&gt;64,70,(H81+J81+L81+M81+O81)),(H81+J81+L81+M81+O81))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -4586,19 +4586,19 @@
         <v>175</v>
       </c>
       <c r="D82" s="6">
-        <f>IF((N82)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E82" s="2">
-        <f>IF((N82)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F82" s="2">
-        <f>IF((N82)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G82" s="6">
-        <f>IF((N82)&gt;=51,IF((N82-50)&gt;50,50,IF((N82-50)&lt;0,0,(N82-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H82">
@@ -4617,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="N82">
-        <f>IF((H82+J82+L82+M82+O82)&lt;70,IF((H82+J82+L82+M82+O82)&gt;64,70,(H82+J82+L82+M82+O82)),(H82+J82+L82+M82+O82))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -4632,19 +4632,19 @@
         <v>177</v>
       </c>
       <c r="D83" s="6">
-        <f>IF((N83)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E83" s="2">
-        <f>IF((N83)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F83" s="2">
-        <f>IF((N83)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G83" s="6">
-        <f>IF((N83)&gt;=51,IF((N83-50)&gt;50,50,IF((N83-50)&lt;0,0,(N83-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H83">
@@ -4663,8 +4663,13 @@
         <v>20</v>
       </c>
       <c r="N83">
-        <f>IF((H83+J83+L83+M83+O83)&lt;70,IF((H83+J83+L83+M83+O83)&gt;64,70,(H83+J83+L83+M83+O83)),(H83+J83+L83+M83+O83))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/BDatos.xlsx
+++ b/OYM/_DocumentosComunes/BDatos.xlsx
@@ -1108,8 +1108,8 @@
   <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2380,21 +2380,21 @@
       <c r="C31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="6" t="str">
+      <c r="D31" s="6">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E31" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F31" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F31" s="2">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G31" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G31" s="6">
         <f t="shared" si="3"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="J31">
         <v>12</v>
@@ -2403,11 +2403,14 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
       </c>
       <c r="N31">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3932,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N97" si="14">IF((H66+J66+L66+M66+O66)&lt;70,IF((H66+J66+L66+M66+O66)&gt;64,70,(H66+J66+L66+M66+O66)),(H66+J66+L66+M66+O66))</f>
+        <f t="shared" ref="N66:N83" si="14">IF((H66+J66+L66+M66+O66)&lt;70,IF((H66+J66+L66+M66+O66)&gt;64,70,(H66+J66+L66+M66+O66)),(H66+J66+L66+M66+O66))</f>
         <v>0</v>
       </c>
     </row>
